--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153966.3357779558</v>
+        <v>144560.1570216734</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24739813.96515134</v>
+        <v>24745355.4329045</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13114889.13993008</v>
+        <v>13116802.09879516</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4421329.383519205</v>
+        <v>4425142.097802718</v>
       </c>
     </row>
     <row r="11">
@@ -1138,20 +1138,20 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.627477127824789</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="F8" t="n">
-        <v>1.627477127824789</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1214,55 +1214,55 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="D9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.847726076095356</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>1.627477127824789</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.627477127824789</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="T10" t="n">
-        <v>1.627477127824789</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>140.1185997565274</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>140.1185997565274</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>140.1185997565274</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>167.1403382771521</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>31.90177044380178</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>108.5189110752811</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.89755159026828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>132.6551205385437</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>93.09630611656613</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>174.645111660463</v>
       </c>
       <c r="X12" t="n">
-        <v>132.0985393308297</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>140.1185997565274</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.9543984734636</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>173.6621429915595</v>
       </c>
       <c r="T13" t="n">
-        <v>123.4164626655493</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="U13" t="n">
-        <v>140.1185997565274</v>
+        <v>74.32543183225698</v>
       </c>
       <c r="V13" t="n">
-        <v>140.1185997565274</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>140.1185997565274</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>219.5565574740962</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>219.5565574740962</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>219.5565574740962</v>
@@ -1624,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>193.3854158231838</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>213.8998645763261</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>96.78758242229674</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>103.5136535500624</v>
       </c>
       <c r="D15" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>53.86385844939231</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>105.1765168157536</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>62.85721528991137</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>93.09630611656613</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.74128208994867</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.43258009724633</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>56.38567239618433</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.7368252532755</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5565574740962</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>219.5565574740962</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.5565574740962</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>275.5585206809379</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>175.6433211064693</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>272.389116684362</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>272.389116684362</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>25.21992467011934</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>98.30504025837996</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>213.1411646249794</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>312.8502732526542</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>312.8502732526542</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.8502732526542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,19 +1925,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>34.79114159950072</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>90.054683822923</v>
+        <v>91.37382471915244</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>80.86343381543674</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3176023070103</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22.41201050867232</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>52.88999563109073</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>172.3072678684935</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>234.1570733294208</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>272.389116684362</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>272.389116684362</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>52.95511383094301</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>312.8502732526542</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>312.8502732526542</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>312.8502732526542</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>272.389116684362</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>25.21992467011934</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>95.28037563057045</v>
+        <v>98.30504025837996</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.364824489102</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>272.389116684362</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>134.4196612423467</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>180.2781450503674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,22 +2162,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>105.0837834607099</v>
       </c>
       <c r="H21" t="n">
-        <v>61.27571533935595</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>10.70388279273808</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>154.3770529724535</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3176023070103</v>
+        <v>114.781771467077</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>59.18348490293778</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2253,10 +2253,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.8171142651918</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>141.3474179630278</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>171.2696536528602</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>234.1570733294208</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>156.9216815279499</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>160.1970146508385</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>80.62004738340157</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2386,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H24" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>68.03602153453157</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>19.21885439427188</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T25" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9132448002744</v>
@@ -2538,7 +2538,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U26" t="n">
-        <v>38.05194123875437</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>56.1226521003629</v>
       </c>
     </row>
     <row r="27">
@@ -2687,7 +2687,7 @@
         <v>83.78946074098184</v>
       </c>
       <c r="T27" t="n">
-        <v>152.731237034806</v>
+        <v>152.7312370348056</v>
       </c>
       <c r="U27" t="n">
         <v>195.2954114342289</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
@@ -2727,10 +2727,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>132.2877351010004</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>166.3415337283568</v>
       </c>
       <c r="T28" t="n">
-        <v>232.6944259398202</v>
+        <v>189.5811355141603</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>405.096273881332</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>280.3388244007394</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>153.780073346291</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H31" t="n">
         <v>138.8332284553781</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S31" t="n">
-        <v>37.05878508127645</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T31" t="n">
-        <v>232.6944259398202</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9132448002744</v>
@@ -3015,7 +3015,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3034,19 +3034,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>121.1223794255721</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>115.0373362329331</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3192,13 +3192,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5343322142292</v>
@@ -3207,7 +3207,7 @@
         <v>138.8332284553781</v>
       </c>
       <c r="I34" t="n">
-        <v>83.80004204681615</v>
+        <v>22.67738712532738</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>64.24761074630882</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>261.4654657741339</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>283.9738944557603</v>
+        <v>115.037336232933</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3435,13 +3435,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>166.3415337283568</v>
@@ -3483,7 +3483,7 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V37" t="n">
-        <v>81.97041107313129</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>95.31679076533167</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>76.98361992374221</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>88.76917743843163</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -3599,7 +3599,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H39" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>83.78946074098218</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T39" t="n">
         <v>152.7312370348056</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>65.86799807699933</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -3672,16 +3672,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H40" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>83.80004204681615</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T40" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U40" t="n">
-        <v>81.71953661924282</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>84.32881764612922</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>283.9738944557603</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>18.75680660593081</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H42" t="n">
-        <v>58.01809521505031</v>
+        <v>58.01809521505042</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>83.78946074098218</v>
+        <v>83.78946074098184</v>
       </c>
       <c r="T42" t="n">
         <v>152.7312370348056</v>
@@ -3900,22 +3900,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H43" t="n">
-        <v>138.8332284553781</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>83.80004204681615</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>166.3415337283568</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>77.71057353388926</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>205.1728103134943</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>283.9738944557603</v>
+        <v>108.9523215115443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>80.91481491188679</v>
+        <v>80.91481491188677</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>201.7225893040617</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>104.6754635109996</v>
       </c>
       <c r="H45" t="n">
-        <v>58.01809521504998</v>
+        <v>58.0180952150503</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>83.78946074098184</v>
+        <v>83.78946074098241</v>
       </c>
       <c r="T45" t="n">
         <v>152.7312370348056</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -4146,16 +4146,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>84.19231841406467</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.61306715795365</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>166.3415337283568</v>
@@ -4194,13 +4194,13 @@
         <v>279.9132448002744</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4786,16 +4786,16 @@
         <v>5.524514328527528</v>
       </c>
       <c r="D8" t="n">
-        <v>3.658124352673633</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="E8" t="n">
-        <v>1.791734376819739</v>
+        <v>3.880598037795417</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="H8" t="n">
         <v>0.1478180860876284</v>
@@ -4807,43 +4807,43 @@
         <v>1.97706690142203</v>
       </c>
       <c r="K8" t="n">
+        <v>1.97706690142203</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.97706690142203</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.97706690142203</v>
+      </c>
+      <c r="N8" t="n">
         <v>3.806315716756433</v>
       </c>
-      <c r="L8" t="n">
-        <v>5.56165548904702</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5.56165548904702</v>
-      </c>
-      <c r="N8" t="n">
-        <v>7.390904304381422</v>
-      </c>
       <c r="O8" t="n">
-        <v>7.390904304381422</v>
+        <v>3.806315716756433</v>
       </c>
       <c r="P8" t="n">
-        <v>7.390904304381422</v>
+        <v>3.806315716756433</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.635564532090834</v>
       </c>
       <c r="R8" t="n">
         <v>7.390904304381422</v>
       </c>
       <c r="S8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="T8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="U8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="V8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="W8" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="X8" t="n">
         <v>5.524514328527528</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.880598037795417</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="C9" t="n">
         <v>2.014208061941523</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="G9" t="n">
         <v>0.1478180860876284</v>
@@ -4889,13 +4889,13 @@
         <v>0.1478180860876284</v>
       </c>
       <c r="L9" t="n">
-        <v>1.97706690142203</v>
+        <v>1.903157858378216</v>
       </c>
       <c r="M9" t="n">
-        <v>3.806315716756433</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="N9" t="n">
-        <v>5.635564532090834</v>
+        <v>5.56165548904702</v>
       </c>
       <c r="O9" t="n">
         <v>7.390904304381422</v>
@@ -4910,25 +4910,25 @@
         <v>7.390904304381422</v>
       </c>
       <c r="S9" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="T9" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="U9" t="n">
-        <v>5.746988013649312</v>
+        <v>3.880598037795417</v>
       </c>
       <c r="V9" t="n">
-        <v>5.746988013649312</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="W9" t="n">
-        <v>5.746988013649312</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="X9" t="n">
-        <v>5.746988013649312</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.880598037795417</v>
+        <v>2.014208061941523</v>
       </c>
     </row>
     <row r="10">
@@ -4965,19 +4965,19 @@
         <v>1.97706690142203</v>
       </c>
       <c r="K10" t="n">
-        <v>3.806315716756433</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="L10" t="n">
-        <v>5.56165548904702</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="M10" t="n">
-        <v>5.56165548904702</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="N10" t="n">
-        <v>5.56165548904702</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="O10" t="n">
-        <v>5.56165548904702</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="P10" t="n">
         <v>5.56165548904702</v>
@@ -4986,25 +4986,25 @@
         <v>7.390904304381422</v>
       </c>
       <c r="R10" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="S10" t="n">
         <v>5.524514328527528</v>
       </c>
       <c r="T10" t="n">
+        <v>5.524514328527528</v>
+      </c>
+      <c r="U10" t="n">
         <v>3.880598037795417</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.014208061941523</v>
       </c>
       <c r="V10" t="n">
         <v>2.014208061941523</v>
       </c>
       <c r="W10" t="n">
-        <v>2.014208061941523</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="X10" t="n">
-        <v>2.014208061941523</v>
+        <v>0.1478180860876284</v>
       </c>
       <c r="Y10" t="n">
         <v>0.1478180860876284</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>294.2773662765372</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="C11" t="n">
-        <v>152.7434271285297</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="D11" t="n">
-        <v>11.20948798052219</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="E11" t="n">
-        <v>11.20948798052219</v>
+        <v>493.3371361049925</v>
       </c>
       <c r="F11" t="n">
-        <v>11.20948798052219</v>
+        <v>271.5628356261075</v>
       </c>
       <c r="G11" t="n">
-        <v>11.20948798052219</v>
+        <v>49.78853514722243</v>
       </c>
       <c r="H11" t="n">
-        <v>11.20948798052219</v>
+        <v>49.78853514722243</v>
       </c>
       <c r="I11" t="n">
-        <v>11.20948798052219</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J11" t="n">
-        <v>32.31178139215874</v>
+        <v>61.76566646422702</v>
       </c>
       <c r="K11" t="n">
-        <v>84.48774890057152</v>
+        <v>148.5608200474253</v>
       </c>
       <c r="L11" t="n">
-        <v>164.16186386187</v>
+        <v>271.1830965723309</v>
       </c>
       <c r="M11" t="n">
-        <v>265.6407904796126</v>
+        <v>420.4501281543859</v>
       </c>
       <c r="N11" t="n">
-        <v>370.630344616409</v>
+        <v>574.0010487547428</v>
       </c>
       <c r="O11" t="n">
-        <v>464.3682226293228</v>
+        <v>713.5940480809668</v>
       </c>
       <c r="P11" t="n">
-        <v>530.3984274630131</v>
+        <v>818.7605380598413</v>
       </c>
       <c r="Q11" t="n">
-        <v>560.4743990261097</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R11" t="n">
-        <v>560.4743990261097</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S11" t="n">
-        <v>450.8593373339066</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="T11" t="n">
-        <v>450.8593373339066</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="U11" t="n">
-        <v>450.8593373339066</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="V11" t="n">
-        <v>450.8593373339066</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="W11" t="n">
-        <v>450.8593373339066</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="X11" t="n">
-        <v>450.8593373339066</v>
+        <v>662.1657606273684</v>
       </c>
       <c r="Y11" t="n">
-        <v>435.8113054245447</v>
+        <v>662.1657606273684</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>145.2045592315765</v>
+        <v>272.052411856654</v>
       </c>
       <c r="C12" t="n">
-        <v>11.20948798052219</v>
+        <v>138.0573406055997</v>
       </c>
       <c r="D12" t="n">
-        <v>11.20948798052219</v>
+        <v>138.0573406055997</v>
       </c>
       <c r="E12" t="n">
-        <v>11.20948798052219</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F12" t="n">
-        <v>11.20948798052219</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G12" t="n">
-        <v>11.20948798052219</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H12" t="n">
-        <v>11.20948798052219</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I12" t="n">
-        <v>11.20948798052219</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J12" t="n">
-        <v>16.15664135372847</v>
+        <v>199.1734695941001</v>
       </c>
       <c r="K12" t="n">
-        <v>56.2648184531284</v>
+        <v>262.7954326257557</v>
       </c>
       <c r="L12" t="n">
-        <v>128.9558413875898</v>
+        <v>367.1036425275507</v>
       </c>
       <c r="M12" t="n">
-        <v>221.6223681478242</v>
+        <v>496.665935192297</v>
       </c>
       <c r="N12" t="n">
-        <v>322.5770033244235</v>
+        <v>635.4928574101227</v>
       </c>
       <c r="O12" t="n">
-        <v>405.9317543666442</v>
+        <v>753.493352143222</v>
       </c>
       <c r="P12" t="n">
-        <v>465.0013989341605</v>
+        <v>840.3692604453867</v>
       </c>
       <c r="Q12" t="n">
-        <v>560.4743990261097</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R12" t="n">
-        <v>560.4743990261097</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S12" t="n">
-        <v>560.4743990261097</v>
+        <v>784.1895570513685</v>
       </c>
       <c r="T12" t="n">
-        <v>560.4743990261097</v>
+        <v>784.1895570513685</v>
       </c>
       <c r="U12" t="n">
-        <v>560.4743990261097</v>
+        <v>784.1895570513685</v>
       </c>
       <c r="V12" t="n">
-        <v>560.4743990261097</v>
+        <v>784.1895570513685</v>
       </c>
       <c r="W12" t="n">
-        <v>560.4743990261097</v>
+        <v>607.7803533539311</v>
       </c>
       <c r="X12" t="n">
-        <v>427.0415310151706</v>
+        <v>431.454371492824</v>
       </c>
       <c r="Y12" t="n">
-        <v>285.5075918671631</v>
+        <v>272.052411856654</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.20948798052219</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="C13" t="n">
-        <v>11.20948798052219</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="D13" t="n">
-        <v>11.20948798052219</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="E13" t="n">
-        <v>11.20948798052219</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="F13" t="n">
-        <v>11.20948798052219</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="G13" t="n">
-        <v>11.20948798052219</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H13" t="n">
-        <v>11.20948798052219</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I13" t="n">
-        <v>11.20948798052219</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J13" t="n">
-        <v>60.300857927218</v>
+        <v>75.28691789969612</v>
       </c>
       <c r="K13" t="n">
-        <v>66.10323849812296</v>
+        <v>292.6479097990514</v>
       </c>
       <c r="L13" t="n">
-        <v>204.8206522570851</v>
+        <v>330.3347052069934</v>
       </c>
       <c r="M13" t="n">
-        <v>343.5380660160473</v>
+        <v>371.3897515067832</v>
       </c>
       <c r="N13" t="n">
-        <v>434.3387610673953</v>
+        <v>588.7507434061384</v>
       </c>
       <c r="O13" t="n">
-        <v>448.8152435527313</v>
+        <v>620.4826137177145</v>
       </c>
       <c r="P13" t="n">
-        <v>453.4822768991009</v>
+        <v>761.0116111609699</v>
       </c>
       <c r="Q13" t="n">
-        <v>560.4743990261097</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R13" t="n">
-        <v>560.4743990261097</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S13" t="n">
-        <v>560.4743990261097</v>
+        <v>702.8099238443044</v>
       </c>
       <c r="T13" t="n">
-        <v>435.8113054245447</v>
+        <v>481.0356233654194</v>
       </c>
       <c r="U13" t="n">
-        <v>294.2773662765372</v>
+        <v>405.9594295954628</v>
       </c>
       <c r="V13" t="n">
-        <v>152.7434271285297</v>
+        <v>405.9594295954628</v>
       </c>
       <c r="W13" t="n">
-        <v>11.20948798052219</v>
+        <v>405.9594295954628</v>
       </c>
       <c r="X13" t="n">
-        <v>11.20948798052219</v>
+        <v>184.1851291165778</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.20948798052219</v>
+        <v>184.1851291165778</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>656.4519294174996</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="C14" t="n">
-        <v>656.4519294174996</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="D14" t="n">
-        <v>434.6776289386146</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="E14" t="n">
-        <v>434.6776289386146</v>
+        <v>239.3388250768128</v>
       </c>
       <c r="F14" t="n">
-        <v>212.9033284597296</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G14" t="n">
-        <v>212.9033284597296</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H14" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I14" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J14" t="n">
-        <v>61.76566646422701</v>
+        <v>61.76566646422691</v>
       </c>
       <c r="K14" t="n">
         <v>148.5608200474251</v>
@@ -5296,34 +5296,34 @@
         <v>713.5940480809666</v>
       </c>
       <c r="P14" t="n">
-        <v>818.760538059841</v>
+        <v>818.7605380598411</v>
       </c>
       <c r="Q14" t="n">
-        <v>878.2262298963846</v>
+        <v>878.2262298963847</v>
       </c>
       <c r="R14" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S14" t="n">
-        <v>878.2262298963847</v>
+        <v>774.9388295947108</v>
       </c>
       <c r="T14" t="n">
-        <v>878.2262298963847</v>
+        <v>558.8783603256945</v>
       </c>
       <c r="U14" t="n">
-        <v>878.2262298963847</v>
+        <v>558.8783603256945</v>
       </c>
       <c r="V14" t="n">
-        <v>878.2262298963847</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="W14" t="n">
-        <v>878.2262298963847</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="X14" t="n">
-        <v>878.2262298963847</v>
+        <v>461.1131255556978</v>
       </c>
       <c r="Y14" t="n">
-        <v>878.2262298963847</v>
+        <v>461.1131255556978</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>467.5605425546745</v>
+        <v>468.4736242138667</v>
       </c>
       <c r="C15" t="n">
-        <v>467.5605425546745</v>
+        <v>363.9143782037027</v>
       </c>
       <c r="D15" t="n">
-        <v>350.6633847740669</v>
+        <v>247.0172204230951</v>
       </c>
       <c r="E15" t="n">
-        <v>296.2554469463979</v>
+        <v>126.5244044154231</v>
       </c>
       <c r="F15" t="n">
-        <v>187.2955671289025</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G15" t="n">
-        <v>81.05666125440383</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I15" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J15" t="n">
-        <v>199.1734695941</v>
+        <v>123.9013828858376</v>
       </c>
       <c r="K15" t="n">
-        <v>262.7954326257557</v>
+        <v>187.5233459174933</v>
       </c>
       <c r="L15" t="n">
-        <v>367.1036425275506</v>
+        <v>291.8315558192883</v>
       </c>
       <c r="M15" t="n">
-        <v>496.6659351922969</v>
+        <v>421.3938484840346</v>
       </c>
       <c r="N15" t="n">
-        <v>635.4928574101226</v>
+        <v>560.2207707018604</v>
       </c>
       <c r="O15" t="n">
-        <v>753.4933521432218</v>
+        <v>678.2212654349596</v>
       </c>
       <c r="P15" t="n">
-        <v>840.3692604453865</v>
+        <v>765.0971737371244</v>
       </c>
       <c r="Q15" t="n">
-        <v>878.2262298963847</v>
+        <v>802.9541431881225</v>
       </c>
       <c r="R15" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S15" t="n">
-        <v>784.1895570513684</v>
+        <v>784.1895570513685</v>
       </c>
       <c r="T15" t="n">
-        <v>784.1895570513684</v>
+        <v>627.8755838500367</v>
       </c>
       <c r="U15" t="n">
-        <v>784.1895570513684</v>
+        <v>627.8755838500367</v>
       </c>
       <c r="V15" t="n">
-        <v>784.1895570513684</v>
+        <v>627.8755838500367</v>
       </c>
       <c r="W15" t="n">
-        <v>784.1895570513684</v>
+        <v>627.8755838500367</v>
       </c>
       <c r="X15" t="n">
-        <v>607.8635751902611</v>
+        <v>627.8755838500367</v>
       </c>
       <c r="Y15" t="n">
-        <v>607.8635751902611</v>
+        <v>468.4736242138667</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>286.0645435990863</v>
+        <v>188.6578970362112</v>
       </c>
       <c r="C16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="D16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="E16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="F16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="G16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="H16" t="n">
-        <v>114.9711711608028</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="I16" t="n">
-        <v>17.56452459792769</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="J16" t="n">
-        <v>75.28691789969611</v>
+        <v>17.5645245979277</v>
       </c>
       <c r="K16" t="n">
-        <v>213.6098145895112</v>
+        <v>234.9255164972829</v>
       </c>
       <c r="L16" t="n">
-        <v>251.2966099974531</v>
+        <v>272.6123119052249</v>
       </c>
       <c r="M16" t="n">
-        <v>468.6576018968083</v>
+        <v>400.2430990444441</v>
       </c>
       <c r="N16" t="n">
-        <v>511.9187489500385</v>
+        <v>443.5042460976744</v>
       </c>
       <c r="O16" t="n">
-        <v>543.6506192616146</v>
+        <v>660.8652379970296</v>
       </c>
       <c r="P16" t="n">
-        <v>761.0116111609698</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="Q16" t="n">
-        <v>878.2262298963847</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="R16" t="n">
-        <v>821.2710052537742</v>
+        <v>878.2262298963848</v>
       </c>
       <c r="S16" t="n">
-        <v>821.2710052537742</v>
+        <v>819.9062043880257</v>
       </c>
       <c r="T16" t="n">
-        <v>599.4967047748892</v>
+        <v>819.9062043880257</v>
       </c>
       <c r="U16" t="n">
-        <v>599.4967047748892</v>
+        <v>819.9062043880257</v>
       </c>
       <c r="V16" t="n">
-        <v>599.4967047748892</v>
+        <v>819.9062043880257</v>
       </c>
       <c r="W16" t="n">
-        <v>599.4967047748892</v>
+        <v>819.9062043880257</v>
       </c>
       <c r="X16" t="n">
-        <v>377.7224042960041</v>
+        <v>598.1319039091406</v>
       </c>
       <c r="Y16" t="n">
-        <v>377.7224042960041</v>
+        <v>376.3576034302556</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>303.3699619419678</v>
+        <v>774.9643405926406</v>
       </c>
       <c r="C17" t="n">
-        <v>303.3699619419678</v>
+        <v>774.9643405926406</v>
       </c>
       <c r="D17" t="n">
-        <v>25.02802186021233</v>
+        <v>774.9643405926406</v>
       </c>
       <c r="E17" t="n">
-        <v>25.02802186021233</v>
+        <v>597.5468445254999</v>
       </c>
       <c r="F17" t="n">
-        <v>25.02802186021233</v>
+        <v>322.4063226221039</v>
       </c>
       <c r="G17" t="n">
-        <v>25.02802186021233</v>
+        <v>322.4063226221039</v>
       </c>
       <c r="H17" t="n">
-        <v>25.02802186021233</v>
+        <v>47.26580071870789</v>
       </c>
       <c r="I17" t="n">
-        <v>25.02802186021233</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="J17" t="n">
-        <v>94.94515262669245</v>
+        <v>80.55532611724664</v>
       </c>
       <c r="K17" t="n">
-        <v>220.2819073888344</v>
+        <v>189.1767239372831</v>
       </c>
       <c r="L17" t="n">
-        <v>390.7184482577248</v>
+        <v>338.876386446524</v>
       </c>
       <c r="M17" t="n">
-        <v>593.1880617448905</v>
+        <v>518.2722271898793</v>
       </c>
       <c r="N17" t="n">
-        <v>800.8024376471698</v>
+        <v>702.4394725824668</v>
       </c>
       <c r="O17" t="n">
-        <v>991.4460247558985</v>
+        <v>870.9425992332361</v>
       </c>
       <c r="P17" t="n">
-        <v>1140.18301031005</v>
+        <v>1000.783214024176</v>
       </c>
       <c r="Q17" t="n">
-        <v>1232.368329785815</v>
+        <v>1078.778146015439</v>
       </c>
       <c r="R17" t="n">
-        <v>1251.401093010617</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="S17" t="n">
-        <v>1251.401093010617</v>
+        <v>990.258446274438</v>
       </c>
       <c r="T17" t="n">
-        <v>1251.401093010617</v>
+        <v>774.9643405926406</v>
       </c>
       <c r="U17" t="n">
-        <v>1251.401093010617</v>
+        <v>774.9643405926406</v>
       </c>
       <c r="V17" t="n">
-        <v>935.3907159877338</v>
+        <v>774.9643405926406</v>
       </c>
       <c r="W17" t="n">
-        <v>935.3907159877338</v>
+        <v>774.9643405926406</v>
       </c>
       <c r="X17" t="n">
-        <v>619.3803389648508</v>
+        <v>774.9643405926406</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.3699619419678</v>
+        <v>774.9643405926406</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>60.17058913243528</v>
+        <v>385.2388964109707</v>
       </c>
       <c r="C18" t="n">
-        <v>60.17058913243528</v>
+        <v>251.2438251599164</v>
       </c>
       <c r="D18" t="n">
-        <v>60.17058913243528</v>
+        <v>251.2438251599164</v>
       </c>
       <c r="E18" t="n">
-        <v>60.17058913243528</v>
+        <v>130.7510091522444</v>
       </c>
       <c r="F18" t="n">
-        <v>60.17058913243528</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="G18" t="n">
-        <v>25.02802186021233</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="H18" t="n">
-        <v>25.02802186021233</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="I18" t="n">
-        <v>35.62312860086639</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="J18" t="n">
-        <v>69.64406468750315</v>
+        <v>49.16945434577252</v>
       </c>
       <c r="K18" t="n">
-        <v>159.4439672481337</v>
+        <v>127.6160765586546</v>
       </c>
       <c r="L18" t="n">
-        <v>298.9516474050256</v>
+        <v>251.8578702061815</v>
       </c>
       <c r="M18" t="n">
-        <v>469.5900616057167</v>
+        <v>404.6817148957926</v>
       </c>
       <c r="N18" t="n">
-        <v>650.5802680707295</v>
+        <v>567.385853203673</v>
       </c>
       <c r="O18" t="n">
-        <v>807.1519306238115</v>
+        <v>707.2293358663696</v>
       </c>
       <c r="P18" t="n">
-        <v>941.6793224904891</v>
+        <v>811.6361676938687</v>
       </c>
       <c r="Q18" t="n">
-        <v>1251.401093010617</v>
+        <v>1008.58435353682</v>
       </c>
       <c r="R18" t="n">
-        <v>1251.401093010617</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="S18" t="n">
-        <v>1160.436765916755</v>
+        <v>997.2596740918395</v>
       </c>
       <c r="T18" t="n">
-        <v>1160.436765916755</v>
+        <v>915.5794379146307</v>
       </c>
       <c r="U18" t="n">
-        <v>963.1462585359366</v>
+        <v>915.5794379146307</v>
       </c>
       <c r="V18" t="n">
-        <v>749.4347315289704</v>
+        <v>701.8679109076645</v>
       </c>
       <c r="W18" t="n">
-        <v>536.2015632652991</v>
+        <v>701.8679109076645</v>
       </c>
       <c r="X18" t="n">
-        <v>359.8755814041919</v>
+        <v>525.5419290465574</v>
       </c>
       <c r="Y18" t="n">
-        <v>200.4736217680219</v>
+        <v>525.5419290465574</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.6664163134167</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="C19" t="n">
-        <v>47.6664163134167</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="D19" t="n">
-        <v>25.02802186021233</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="E19" t="n">
-        <v>25.02802186021233</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="F19" t="n">
-        <v>25.02802186021233</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="G19" t="n">
-        <v>25.02802186021233</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="H19" t="n">
-        <v>25.02802186021233</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="I19" t="n">
-        <v>25.02802186021233</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="J19" t="n">
-        <v>27.357985120208</v>
+        <v>84.95509550754683</v>
       </c>
       <c r="K19" t="n">
-        <v>63.13421804452058</v>
+        <v>320.163268194394</v>
       </c>
       <c r="L19" t="n">
-        <v>372.8559885646482</v>
+        <v>589.8284937119124</v>
       </c>
       <c r="M19" t="n">
-        <v>593.766309305561</v>
+        <v>722.2412132936209</v>
       </c>
       <c r="N19" t="n">
-        <v>903.4880798256886</v>
+        <v>777.2804233709014</v>
       </c>
       <c r="O19" t="n">
-        <v>1213.209850345816</v>
+        <v>819.8912412199297</v>
       </c>
       <c r="P19" t="n">
-        <v>1249.07971089952</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="Q19" t="n">
-        <v>1251.401093010617</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="R19" t="n">
-        <v>1251.401093010617</v>
+        <v>1036.132228726245</v>
       </c>
       <c r="S19" t="n">
-        <v>1251.401093010617</v>
+        <v>862.0844834045347</v>
       </c>
       <c r="T19" t="n">
-        <v>1251.401093010617</v>
+        <v>625.5621871121905</v>
       </c>
       <c r="U19" t="n">
-        <v>1251.401093010617</v>
+        <v>350.4216652087945</v>
       </c>
       <c r="V19" t="n">
-        <v>977.5153479501387</v>
+        <v>350.4216652087945</v>
       </c>
       <c r="W19" t="n">
-        <v>698.445683459013</v>
+        <v>75.28114330539847</v>
       </c>
       <c r="X19" t="n">
-        <v>460.1018213186964</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="Y19" t="n">
-        <v>235.3661227074611</v>
+        <v>21.79112933474896</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>657.0487759059785</v>
+        <v>322.4063226221039</v>
       </c>
       <c r="C20" t="n">
-        <v>341.0383988830954</v>
+        <v>322.4063226221039</v>
       </c>
       <c r="D20" t="n">
-        <v>25.02802186021234</v>
+        <v>322.4063226221039</v>
       </c>
       <c r="E20" t="n">
-        <v>25.02802186021234</v>
+        <v>322.4063226221039</v>
       </c>
       <c r="F20" t="n">
-        <v>25.02802186021234</v>
+        <v>322.4063226221039</v>
       </c>
       <c r="G20" t="n">
-        <v>25.02802186021234</v>
+        <v>322.4063226221039</v>
       </c>
       <c r="H20" t="n">
-        <v>25.02802186021234</v>
+        <v>47.26580071870789</v>
       </c>
       <c r="I20" t="n">
-        <v>25.02802186021234</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="J20" t="n">
-        <v>94.9451526266926</v>
+        <v>80.55532611724664</v>
       </c>
       <c r="K20" t="n">
-        <v>220.2819073888346</v>
+        <v>189.1767239372831</v>
       </c>
       <c r="L20" t="n">
-        <v>390.7184482577252</v>
+        <v>338.876386446524</v>
       </c>
       <c r="M20" t="n">
-        <v>593.1880617448908</v>
+        <v>518.2722271898793</v>
       </c>
       <c r="N20" t="n">
-        <v>800.8024376471701</v>
+        <v>702.4394725824668</v>
       </c>
       <c r="O20" t="n">
-        <v>991.4460247558989</v>
+        <v>870.9425992332361</v>
       </c>
       <c r="P20" t="n">
-        <v>1140.18301031005</v>
+        <v>1000.783214024176</v>
       </c>
       <c r="Q20" t="n">
-        <v>1232.368329785816</v>
+        <v>1078.778146015439</v>
       </c>
       <c r="R20" t="n">
-        <v>1251.401093010617</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="S20" t="n">
-        <v>1155.158289343374</v>
+        <v>990.258446274438</v>
       </c>
       <c r="T20" t="n">
-        <v>1155.158289343374</v>
+        <v>990.258446274438</v>
       </c>
       <c r="U20" t="n">
-        <v>1155.158289343374</v>
+        <v>733.3242801238299</v>
       </c>
       <c r="V20" t="n">
-        <v>1155.158289343374</v>
+        <v>458.1837582204339</v>
       </c>
       <c r="W20" t="n">
-        <v>1155.158289343374</v>
+        <v>322.4063226221039</v>
       </c>
       <c r="X20" t="n">
-        <v>1155.158289343374</v>
+        <v>322.4063226221039</v>
       </c>
       <c r="Y20" t="n">
-        <v>973.0591529288615</v>
+        <v>322.4063226221039</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>567.267608675987</v>
+        <v>127.9363651536478</v>
       </c>
       <c r="C21" t="n">
-        <v>433.2725374249328</v>
+        <v>127.9363651536478</v>
       </c>
       <c r="D21" t="n">
-        <v>316.3753796443252</v>
+        <v>127.9363651536478</v>
       </c>
       <c r="E21" t="n">
-        <v>195.8825636366532</v>
+        <v>127.9363651536478</v>
       </c>
       <c r="F21" t="n">
-        <v>86.92268381915775</v>
+        <v>127.9363651536478</v>
       </c>
       <c r="G21" t="n">
-        <v>86.92268381915775</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="H21" t="n">
-        <v>25.02802186021234</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="I21" t="n">
-        <v>25.02802186021234</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="J21" t="n">
-        <v>59.04895794684911</v>
+        <v>277.513825826329</v>
       </c>
       <c r="K21" t="n">
-        <v>368.7707284669768</v>
+        <v>355.960448039211</v>
       </c>
       <c r="L21" t="n">
-        <v>566.8173933401376</v>
+        <v>480.202241686738</v>
       </c>
       <c r="M21" t="n">
-        <v>737.4558075408288</v>
+        <v>633.0260863763491</v>
       </c>
       <c r="N21" t="n">
-        <v>918.4460140058416</v>
+        <v>795.7302246842296</v>
       </c>
       <c r="O21" t="n">
-        <v>1075.017676558924</v>
+        <v>935.5737073469262</v>
       </c>
       <c r="P21" t="n">
-        <v>1192.850347530847</v>
+        <v>1039.980539174425</v>
       </c>
       <c r="Q21" t="n">
-        <v>1251.401093010617</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="R21" t="n">
-        <v>1251.401093010617</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="S21" t="n">
-        <v>1240.589090189669</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="T21" t="n">
-        <v>1240.589090189669</v>
+        <v>933.6200495935557</v>
       </c>
       <c r="U21" t="n">
-        <v>1043.298582808851</v>
+        <v>817.6788662934779</v>
       </c>
       <c r="V21" t="n">
-        <v>1043.298582808851</v>
+        <v>603.9673392865117</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.298582808851</v>
+        <v>603.9673392865117</v>
       </c>
       <c r="X21" t="n">
-        <v>866.9726009477437</v>
+        <v>427.6413574254045</v>
       </c>
       <c r="Y21" t="n">
-        <v>707.5706413115737</v>
+        <v>268.2393977892345</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>890.7017364621684</v>
+        <v>506.8277150329282</v>
       </c>
       <c r="C22" t="n">
-        <v>719.6083640238849</v>
+        <v>506.8277150329282</v>
       </c>
       <c r="D22" t="n">
-        <v>659.8270661421295</v>
+        <v>347.3330703558382</v>
       </c>
       <c r="E22" t="n">
-        <v>498.9162510104489</v>
+        <v>186.4222552241577</v>
       </c>
       <c r="F22" t="n">
-        <v>334.2851251210402</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="G22" t="n">
-        <v>167.8031915198364</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="H22" t="n">
-        <v>25.02802186021234</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="I22" t="n">
-        <v>25.02802186021234</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="J22" t="n">
-        <v>92.35934875154442</v>
+        <v>21.79112933474896</v>
       </c>
       <c r="K22" t="n">
-        <v>334.4157752615712</v>
+        <v>50.71910843588205</v>
       </c>
       <c r="L22" t="n">
-        <v>644.1375457816989</v>
+        <v>320.3843339534005</v>
       </c>
       <c r="M22" t="n">
-        <v>953.8593163018265</v>
+        <v>495.1868056251309</v>
       </c>
       <c r="N22" t="n">
-        <v>1017.9186090556</v>
+        <v>550.2260157024114</v>
       </c>
       <c r="O22" t="n">
-        <v>1213.209850345816</v>
+        <v>819.8912412199297</v>
       </c>
       <c r="P22" t="n">
-        <v>1249.07971089952</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="Q22" t="n">
-        <v>1251.401093010617</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="R22" t="n">
-        <v>1251.401093010617</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="S22" t="n">
-        <v>1078.401442856213</v>
+        <v>1089.556466737448</v>
       </c>
       <c r="T22" t="n">
-        <v>1078.401442856213</v>
+        <v>853.0341704451039</v>
       </c>
       <c r="U22" t="n">
-        <v>1078.401442856213</v>
+        <v>694.5274214269726</v>
       </c>
       <c r="V22" t="n">
-        <v>1078.401442856213</v>
+        <v>694.5274214269726</v>
       </c>
       <c r="W22" t="n">
-        <v>1078.401442856213</v>
+        <v>694.5274214269726</v>
       </c>
       <c r="X22" t="n">
-        <v>1078.401442856213</v>
+        <v>694.5274214269726</v>
       </c>
       <c r="Y22" t="n">
-        <v>1078.401442856213</v>
+        <v>694.5274214269726</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1158.483757311192</v>
+        <v>489.1439208921282</v>
       </c>
       <c r="C23" t="n">
-        <v>748.3591666244624</v>
+        <v>489.1439208921282</v>
       </c>
       <c r="D23" t="n">
-        <v>748.3591666244624</v>
+        <v>489.1439208921282</v>
       </c>
       <c r="E23" t="n">
-        <v>748.3591666244624</v>
+        <v>489.1439208921282</v>
       </c>
       <c r="F23" t="n">
         <v>327.3287545781499</v>
@@ -5989,10 +5989,10 @@
         <v>44.64574590746543</v>
       </c>
       <c r="J23" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K23" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L23" t="n">
         <v>641.1850750879075</v>
@@ -6019,22 +6019,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T23" t="n">
-        <v>1942.887456007071</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="U23" t="n">
-        <v>1942.887456007071</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="V23" t="n">
-        <v>1942.887456007071</v>
+        <v>1674.484292639917</v>
       </c>
       <c r="W23" t="n">
-        <v>1559.12715514224</v>
+        <v>1290.723991775086</v>
       </c>
       <c r="X23" t="n">
-        <v>1158.483757311192</v>
+        <v>890.0805939440381</v>
       </c>
       <c r="Y23" t="n">
-        <v>1158.483757311192</v>
+        <v>489.1439208921282</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D24" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E24" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F24" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G24" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H24" t="n">
         <v>40.48643694606873</v>
@@ -6068,52 +6068,52 @@
         <v>62.57863487475247</v>
       </c>
       <c r="J24" t="n">
-        <v>128.1484679399048</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K24" t="n">
-        <v>271.8704604711963</v>
+        <v>664.3550098615118</v>
       </c>
       <c r="L24" t="n">
-        <v>483.8830449928536</v>
+        <v>876.3675943831691</v>
       </c>
       <c r="M24" t="n">
-        <v>739.1312627518217</v>
+        <v>1131.615812142137</v>
       </c>
       <c r="N24" t="n">
-        <v>1006.970642510971</v>
+        <v>1399.455191901287</v>
       </c>
       <c r="O24" t="n">
-        <v>1242.992331264951</v>
+        <v>1635.476880655266</v>
       </c>
       <c r="P24" t="n">
-        <v>1505.20165549492</v>
+        <v>1817.075202091449</v>
       </c>
       <c r="Q24" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R24" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S24" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T24" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U24" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V24" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W24" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X24" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y24" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>600.7085232684071</v>
+        <v>556.6837334639686</v>
       </c>
       <c r="C25" t="n">
-        <v>429.6151508301236</v>
+        <v>385.5903610256851</v>
       </c>
       <c r="D25" t="n">
-        <v>270.1205061530337</v>
+        <v>226.0957163485951</v>
       </c>
       <c r="E25" t="n">
-        <v>109.2096910213531</v>
+        <v>226.0957163485951</v>
       </c>
       <c r="F25" t="n">
-        <v>40.48643694606873</v>
+        <v>226.0957163485951</v>
       </c>
       <c r="G25" t="n">
-        <v>40.48643694606873</v>
+        <v>59.89942118270699</v>
       </c>
       <c r="H25" t="n">
         <v>40.48643694606873</v>
@@ -6147,22 +6147,22 @@
         <v>40.48643694606873</v>
       </c>
       <c r="J25" t="n">
-        <v>62.60916429909252</v>
+        <v>78.1093413177889</v>
       </c>
       <c r="K25" t="n">
-        <v>337.1911823108422</v>
+        <v>146.4111657438244</v>
       </c>
       <c r="L25" t="n">
-        <v>506.8233170565554</v>
+        <v>245.9258335834375</v>
       </c>
       <c r="M25" t="n">
-        <v>958.033535442436</v>
+        <v>697.136051969318</v>
       </c>
       <c r="N25" t="n">
-        <v>1396.967762018482</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O25" t="n">
-        <v>1802.555103535984</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P25" t="n">
         <v>1872.284155743751</v>
@@ -6177,22 +6177,22 @@
         <v>1818.423362863342</v>
       </c>
       <c r="T25" t="n">
-        <v>1583.378488176655</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="U25" t="n">
-        <v>1300.637836863246</v>
+        <v>1535.682711549933</v>
       </c>
       <c r="V25" t="n">
-        <v>1026.752091802768</v>
+        <v>1261.796966489455</v>
       </c>
       <c r="W25" t="n">
-        <v>1026.752091802768</v>
+        <v>982.7273019983295</v>
       </c>
       <c r="X25" t="n">
-        <v>788.4082296624515</v>
+        <v>744.3834398580129</v>
       </c>
       <c r="Y25" t="n">
-        <v>788.4082296624515</v>
+        <v>744.3834398580129</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.48643694606873</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="C26" t="n">
-        <v>40.48643694606873</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="D26" t="n">
-        <v>40.48643694606873</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="E26" t="n">
-        <v>40.48643694606873</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="F26" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G26" t="n">
-        <v>40.48643694606873</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="H26" t="n">
         <v>40.48643694606873</v>
@@ -6229,22 +6229,22 @@
         <v>167.5334271492898</v>
       </c>
       <c r="K26" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L26" t="n">
-        <v>641.1850750879075</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M26" t="n">
-        <v>953.2429319501306</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N26" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O26" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P26" t="n">
-        <v>1806.502667397419</v>
+        <v>1806.502667397418</v>
       </c>
       <c r="Q26" t="n">
         <v>1966.084838463273</v>
@@ -6256,22 +6256,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T26" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U26" t="n">
-        <v>1985.885543021866</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V26" t="n">
-        <v>1636.047988358347</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="W26" t="n">
-        <v>1252.287687493515</v>
+        <v>1205.692112031634</v>
       </c>
       <c r="X26" t="n">
-        <v>851.6442896624681</v>
+        <v>805.0487142005866</v>
       </c>
       <c r="Y26" t="n">
-        <v>450.7076166105582</v>
+        <v>748.3591666244624</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I27" t="n">
-        <v>62.57863487475247</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J27" t="n">
-        <v>371.8168719145381</v>
+        <v>352.2490680648407</v>
       </c>
       <c r="K27" t="n">
-        <v>664.3550098615118</v>
+        <v>495.9710605961322</v>
       </c>
       <c r="L27" t="n">
-        <v>876.3675943831691</v>
+        <v>707.9836451177896</v>
       </c>
       <c r="M27" t="n">
-        <v>1131.615812142137</v>
+        <v>963.2318628767576</v>
       </c>
       <c r="N27" t="n">
-        <v>1399.455191901287</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O27" t="n">
-        <v>1635.476880655266</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P27" t="n">
-        <v>1817.075202091449</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q27" t="n">
         <v>1918.251596225539</v>
@@ -6332,7 +6332,7 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S27" t="n">
-        <v>1939.686028373152</v>
+        <v>1939.686028373151</v>
       </c>
       <c r="T27" t="n">
         <v>1785.412051570317</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.4759542303887</v>
+        <v>366.028377967158</v>
       </c>
       <c r="C28" t="n">
-        <v>799.3825817921052</v>
+        <v>366.028377967158</v>
       </c>
       <c r="D28" t="n">
-        <v>639.8879371150151</v>
+        <v>366.028377967158</v>
       </c>
       <c r="E28" t="n">
-        <v>478.9771219833346</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="F28" t="n">
-        <v>314.3459960939259</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G28" t="n">
-        <v>180.7220212444305</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H28" t="n">
         <v>40.48643694606873</v>
@@ -6384,25 +6384,25 @@
         <v>40.48643694606873</v>
       </c>
       <c r="J28" t="n">
-        <v>62.60916429909252</v>
+        <v>127.6105279304289</v>
       </c>
       <c r="K28" t="n">
-        <v>337.1911823108422</v>
+        <v>219.6034981877564</v>
       </c>
       <c r="L28" t="n">
-        <v>750.6849613854782</v>
+        <v>633.0972772623925</v>
       </c>
       <c r="M28" t="n">
-        <v>1201.895179771359</v>
+        <v>1084.307495648273</v>
       </c>
       <c r="N28" t="n">
-        <v>1396.967762018482</v>
+        <v>1523.241722224319</v>
       </c>
       <c r="O28" t="n">
-        <v>1802.555103535984</v>
+        <v>1928.829063741821</v>
       </c>
       <c r="P28" t="n">
-        <v>1872.284155743751</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q28" t="n">
         <v>2024.321847303436</v>
@@ -6414,22 +6414,22 @@
         <v>1856.300096062672</v>
       </c>
       <c r="T28" t="n">
-        <v>1621.255221375985</v>
+        <v>1664.803999583722</v>
       </c>
       <c r="U28" t="n">
-        <v>1621.255221375985</v>
+        <v>1382.063348270314</v>
       </c>
       <c r="V28" t="n">
-        <v>1621.255221375985</v>
+        <v>1108.177603209836</v>
       </c>
       <c r="W28" t="n">
-        <v>1621.255221375985</v>
+        <v>829.1079387187099</v>
       </c>
       <c r="X28" t="n">
-        <v>1382.911359235668</v>
+        <v>590.7640765783933</v>
       </c>
       <c r="Y28" t="n">
-        <v>1158.175660624433</v>
+        <v>366.028377967158</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1264.263112975427</v>
+        <v>1272.359136997437</v>
       </c>
       <c r="C29" t="n">
-        <v>854.1385222886971</v>
+        <v>1272.359136997437</v>
       </c>
       <c r="D29" t="n">
-        <v>449.6745923817576</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="E29" t="n">
-        <v>40.48643694606871</v>
+        <v>867.8952070904973</v>
       </c>
       <c r="F29" t="n">
-        <v>40.48643694606871</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="G29" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H29" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I29" t="n">
-        <v>44.64574590746543</v>
+        <v>44.6457459074652</v>
       </c>
       <c r="J29" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492895</v>
       </c>
       <c r="K29" t="n">
         <v>372.2593058752963</v>
@@ -6478,13 +6478,13 @@
         <v>1272.218803576257</v>
       </c>
       <c r="O29" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P29" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q29" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R29" t="n">
         <v>2024.321847303436</v>
@@ -6493,22 +6493,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T29" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U29" t="n">
-        <v>2024.321847303436</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V29" t="n">
-        <v>1674.484292639916</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="W29" t="n">
-        <v>1674.484292639916</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="X29" t="n">
-        <v>1674.484292639916</v>
+        <v>1272.359136997437</v>
       </c>
       <c r="Y29" t="n">
-        <v>1674.484292639916</v>
+        <v>1272.359136997437</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685.1682898090089</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C30" t="n">
-        <v>551.1732185579547</v>
+        <v>551.173218557955</v>
       </c>
       <c r="D30" t="n">
-        <v>434.2760607773471</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E30" t="n">
-        <v>313.7832447696751</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F30" t="n">
-        <v>204.8233649521797</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G30" t="n">
-        <v>99.09057352692761</v>
+        <v>99.09057352692759</v>
       </c>
       <c r="H30" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I30" t="n">
-        <v>43.01083102505505</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J30" t="n">
-        <v>352.2490680648406</v>
+        <v>108.5806640902074</v>
       </c>
       <c r="K30" t="n">
-        <v>495.9710605961321</v>
+        <v>609.6003212978078</v>
       </c>
       <c r="L30" t="n">
-        <v>707.9836451177895</v>
+        <v>821.6129058194651</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2318628767575</v>
+        <v>1076.861123578433</v>
       </c>
       <c r="N30" t="n">
-        <v>1231.071242635907</v>
+        <v>1344.700503337583</v>
       </c>
       <c r="O30" t="n">
-        <v>1467.092931389886</v>
+        <v>1580.722192091562</v>
       </c>
       <c r="P30" t="n">
-        <v>1648.691252826069</v>
+        <v>1762.320513527745</v>
       </c>
       <c r="Q30" t="n">
         <v>2006.22131270252</v>
@@ -6572,7 +6572,7 @@
         <v>1939.686028373151</v>
       </c>
       <c r="T30" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U30" t="n">
         <v>1588.14395921251</v>
@@ -6584,10 +6584,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X30" t="n">
-        <v>984.8732820807655</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y30" t="n">
-        <v>825.4713224445956</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3685283624266</v>
+        <v>602.6581959665982</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3685283624266</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3685283624266</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3685283624266</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3685283624266</v>
+        <v>431.5648235283147</v>
       </c>
       <c r="G31" t="n">
         <v>265.3685283624266</v>
@@ -6618,55 +6618,55 @@
         <v>125.1329440640648</v>
       </c>
       <c r="I31" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J31" t="n">
-        <v>62.60916429909251</v>
+        <v>62.60916429909252</v>
       </c>
       <c r="K31" t="n">
-        <v>337.1911823108422</v>
+        <v>303.672364228924</v>
       </c>
       <c r="L31" t="n">
-        <v>750.6849613854782</v>
+        <v>717.16614330356</v>
       </c>
       <c r="M31" t="n">
-        <v>1201.895179771359</v>
+        <v>823.4100121751551</v>
       </c>
       <c r="N31" t="n">
-        <v>1523.241722224319</v>
+        <v>1262.344238751201</v>
       </c>
       <c r="O31" t="n">
-        <v>1928.82906374182</v>
+        <v>1667.931580268703</v>
       </c>
       <c r="P31" t="n">
-        <v>1998.558115949587</v>
+        <v>1998.558115949588</v>
       </c>
       <c r="Q31" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R31" t="n">
-        <v>2024.321847303436</v>
+        <v>1986.445114104106</v>
       </c>
       <c r="S31" t="n">
-        <v>1986.888731059722</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="T31" t="n">
-        <v>1751.843856373035</v>
+        <v>1818.423362863342</v>
       </c>
       <c r="U31" t="n">
-        <v>1469.103205059627</v>
+        <v>1535.682711549933</v>
       </c>
       <c r="V31" t="n">
-        <v>1195.217459999149</v>
+        <v>1261.796966489455</v>
       </c>
       <c r="W31" t="n">
-        <v>916.1477955080229</v>
+        <v>982.7273019983295</v>
       </c>
       <c r="X31" t="n">
-        <v>677.8039333677062</v>
+        <v>982.7273019983295</v>
       </c>
       <c r="Y31" t="n">
-        <v>453.0682347564709</v>
+        <v>757.9916033870942</v>
       </c>
     </row>
     <row r="32">
@@ -6676,46 +6676,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1141.917275171819</v>
+        <v>1285.981655162214</v>
       </c>
       <c r="C32" t="n">
-        <v>731.7926844850895</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="D32" t="n">
-        <v>327.3287545781499</v>
+        <v>875.8570644754845</v>
       </c>
       <c r="E32" t="n">
-        <v>327.3287545781499</v>
+        <v>461.5168489923812</v>
       </c>
       <c r="F32" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G32" t="n">
-        <v>327.3287545781499</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H32" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I32" t="n">
-        <v>44.64574590746555</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J32" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K32" t="n">
-        <v>372.2593058752966</v>
+        <v>372.2593058752964</v>
       </c>
       <c r="L32" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879075</v>
       </c>
       <c r="M32" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501305</v>
       </c>
       <c r="N32" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O32" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P32" t="n">
         <v>1806.502667397418</v>
@@ -6730,22 +6730,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T32" t="n">
-        <v>1901.976009499828</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U32" t="n">
-        <v>1901.976009499828</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="V32" t="n">
-        <v>1552.138454836309</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="W32" t="n">
-        <v>1552.138454836309</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="X32" t="n">
-        <v>1552.138454836309</v>
+        <v>1696.202834826704</v>
       </c>
       <c r="Y32" t="n">
-        <v>1552.138454836309</v>
+        <v>1696.202834826704</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I33" t="n">
-        <v>43.01083102505507</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J33" t="n">
-        <v>352.2490680648407</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K33" t="n">
-        <v>495.9710605961322</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L33" t="n">
-        <v>707.9836451177896</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M33" t="n">
-        <v>963.2318628767576</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.071242635907</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O33" t="n">
-        <v>1467.092931389886</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P33" t="n">
-        <v>1648.691252826069</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q33" t="n">
-        <v>1918.251596225539</v>
+        <v>2006.22131270252</v>
       </c>
       <c r="R33" t="n">
         <v>2024.321847303436</v>
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>755.6905940948134</v>
+        <v>369.8247680520634</v>
       </c>
       <c r="C34" t="n">
-        <v>755.6905940948134</v>
+        <v>369.8247680520634</v>
       </c>
       <c r="D34" t="n">
-        <v>596.1959494177233</v>
+        <v>369.8247680520634</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1959494177233</v>
+        <v>369.8247680520634</v>
       </c>
       <c r="F34" t="n">
-        <v>431.5648235283147</v>
+        <v>369.8247680520634</v>
       </c>
       <c r="G34" t="n">
-        <v>265.3685283624266</v>
+        <v>203.6284728861753</v>
       </c>
       <c r="H34" t="n">
-        <v>125.1329440640648</v>
+        <v>63.39288858781356</v>
       </c>
       <c r="I34" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="J34" t="n">
-        <v>127.6105279304289</v>
+        <v>78.1093413177889</v>
       </c>
       <c r="K34" t="n">
-        <v>402.1925459421785</v>
+        <v>146.4111657438244</v>
       </c>
       <c r="L34" t="n">
-        <v>815.6863250168146</v>
+        <v>245.9258335834375</v>
       </c>
       <c r="M34" t="n">
-        <v>1266.896543402695</v>
+        <v>697.136051969318</v>
       </c>
       <c r="N34" t="n">
-        <v>1373.796468531156</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O34" t="n">
         <v>1541.657620062866</v>
@@ -6885,25 +6885,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S34" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T34" t="n">
-        <v>2024.321847303436</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="U34" t="n">
-        <v>1959.425270792013</v>
+        <v>1573.559444749263</v>
       </c>
       <c r="V34" t="n">
-        <v>1685.539525731535</v>
+        <v>1299.673699688785</v>
       </c>
       <c r="W34" t="n">
-        <v>1406.46986124041</v>
+        <v>1020.60403519766</v>
       </c>
       <c r="X34" t="n">
-        <v>1168.125999100093</v>
+        <v>782.2601730573431</v>
       </c>
       <c r="Y34" t="n">
-        <v>943.3903004888577</v>
+        <v>557.5244744461078</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1812.402164354919</v>
+        <v>1402.18098469043</v>
       </c>
       <c r="C35" t="n">
-        <v>1402.277573668189</v>
+        <v>992.0563940036997</v>
       </c>
       <c r="D35" t="n">
-        <v>997.8136437612498</v>
+        <v>992.0563940036997</v>
       </c>
       <c r="E35" t="n">
-        <v>733.707112676266</v>
+        <v>577.7161785205964</v>
       </c>
       <c r="F35" t="n">
-        <v>733.707112676266</v>
+        <v>156.6857664742839</v>
       </c>
       <c r="G35" t="n">
-        <v>327.3287545781499</v>
+        <v>156.6857664742839</v>
       </c>
       <c r="H35" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I35" t="n">
-        <v>44.64574590746554</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J35" t="n">
-        <v>167.5334271492899</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K35" t="n">
         <v>372.2593058752965</v>
@@ -6952,7 +6952,7 @@
         <v>1272.218803576257</v>
       </c>
       <c r="O35" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P35" t="n">
         <v>1806.502667397418</v>
@@ -7013,28 +7013,28 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I36" t="n">
-        <v>55.21992119155763</v>
+        <v>62.57863487475247</v>
       </c>
       <c r="J36" t="n">
-        <v>120.78975425671</v>
+        <v>371.8168719145381</v>
       </c>
       <c r="K36" t="n">
-        <v>264.5117467880015</v>
+        <v>515.5388644458296</v>
       </c>
       <c r="L36" t="n">
-        <v>476.5243313096588</v>
+        <v>727.551448967487</v>
       </c>
       <c r="M36" t="n">
-        <v>731.7725490686269</v>
+        <v>982.799666726455</v>
       </c>
       <c r="N36" t="n">
-        <v>999.6119288277761</v>
+        <v>1250.639046485604</v>
       </c>
       <c r="O36" t="n">
-        <v>1235.633617581756</v>
+        <v>1486.660735239584</v>
       </c>
       <c r="P36" t="n">
-        <v>1417.231939017938</v>
+        <v>1668.259056675767</v>
       </c>
       <c r="Q36" t="n">
         <v>1918.251596225539</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>512.7262088143945</v>
+        <v>537.1217504054415</v>
       </c>
       <c r="C37" t="n">
-        <v>341.632836376111</v>
+        <v>366.028377967158</v>
       </c>
       <c r="D37" t="n">
-        <v>341.632836376111</v>
+        <v>366.028377967158</v>
       </c>
       <c r="E37" t="n">
-        <v>180.7220212444305</v>
+        <v>205.1175628354775</v>
       </c>
       <c r="F37" t="n">
-        <v>180.7220212444305</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="G37" t="n">
-        <v>180.7220212444305</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H37" t="n">
         <v>40.48643694606873</v>
@@ -7101,16 +7101,16 @@
         <v>402.1925459421785</v>
       </c>
       <c r="L37" t="n">
-        <v>815.6863250168146</v>
+        <v>501.7072137817916</v>
       </c>
       <c r="M37" t="n">
-        <v>921.9301938884097</v>
+        <v>952.9174321676721</v>
       </c>
       <c r="N37" t="n">
-        <v>1136.070278545364</v>
+        <v>1391.851658743718</v>
       </c>
       <c r="O37" t="n">
-        <v>1541.657620062866</v>
+        <v>1797.43900026122</v>
       </c>
       <c r="P37" t="n">
         <v>1872.284155743751</v>
@@ -7119,28 +7119,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R37" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S37" t="n">
-        <v>1818.423362863342</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T37" t="n">
-        <v>1583.378488176655</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U37" t="n">
-        <v>1300.637836863246</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V37" t="n">
-        <v>1217.839441839881</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="W37" t="n">
-        <v>938.7697773487555</v>
+        <v>1059.444905571451</v>
       </c>
       <c r="X37" t="n">
-        <v>700.4259152084388</v>
+        <v>821.101043431134</v>
       </c>
       <c r="Y37" t="n">
-        <v>700.4259152084388</v>
+        <v>724.8214567994859</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>551.1826847887768</v>
+        <v>851.3287249511243</v>
       </c>
       <c r="C38" t="n">
-        <v>551.1826847887768</v>
+        <v>851.3287249511243</v>
       </c>
       <c r="D38" t="n">
-        <v>551.1826847887768</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="E38" t="n">
-        <v>461.5168489923812</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="F38" t="n">
-        <v>40.48643694606873</v>
+        <v>446.8647950441849</v>
       </c>
       <c r="G38" t="n">
         <v>40.48643694606873</v>
@@ -7171,19 +7171,19 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I38" t="n">
-        <v>44.64574590746577</v>
+        <v>44.64574590746543</v>
       </c>
       <c r="J38" t="n">
-        <v>167.5334271492901</v>
+        <v>167.5334271492898</v>
       </c>
       <c r="K38" t="n">
-        <v>372.2593058752967</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L38" t="n">
-        <v>641.185075087908</v>
+        <v>641.1850750879078</v>
       </c>
       <c r="M38" t="n">
-        <v>953.2429319501309</v>
+        <v>953.2429319501307</v>
       </c>
       <c r="N38" t="n">
         <v>1272.218803576257</v>
@@ -7204,22 +7204,22 @@
         <v>1942.589711028803</v>
       </c>
       <c r="T38" t="n">
-        <v>1942.589711028803</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="U38" t="n">
-        <v>1685.717213369037</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="V38" t="n">
-        <v>1335.879658705518</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="W38" t="n">
-        <v>952.1193578406867</v>
+        <v>1730.670028080286</v>
       </c>
       <c r="X38" t="n">
-        <v>952.1193578406867</v>
+        <v>1330.026630249238</v>
       </c>
       <c r="Y38" t="n">
-        <v>551.1826847887768</v>
+        <v>929.0899571973285</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C39" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D39" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E39" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F39" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G39" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H39" t="n">
         <v>40.48643694606873</v>
       </c>
       <c r="I39" t="n">
-        <v>62.57863487475247</v>
+        <v>43.01083102505507</v>
       </c>
       <c r="J39" t="n">
-        <v>128.1484679399048</v>
+        <v>352.2490680648407</v>
       </c>
       <c r="K39" t="n">
-        <v>271.8704604711963</v>
+        <v>495.9710605961322</v>
       </c>
       <c r="L39" t="n">
-        <v>483.8830449928536</v>
+        <v>707.9836451177896</v>
       </c>
       <c r="M39" t="n">
-        <v>739.1312627518217</v>
+        <v>963.2318628767576</v>
       </c>
       <c r="N39" t="n">
-        <v>1006.970642510971</v>
+        <v>1231.071242635907</v>
       </c>
       <c r="O39" t="n">
-        <v>1242.992331264951</v>
+        <v>1467.092931389886</v>
       </c>
       <c r="P39" t="n">
-        <v>1424.590652701133</v>
+        <v>1648.691252826069</v>
       </c>
       <c r="Q39" t="n">
         <v>1918.251596225539</v>
@@ -7280,25 +7280,25 @@
         <v>2024.321847303436</v>
       </c>
       <c r="S39" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T39" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U39" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V39" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W39" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X39" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y39" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>928.2001369876873</v>
+        <v>538.6869196819208</v>
       </c>
       <c r="C40" t="n">
-        <v>757.1067645494038</v>
+        <v>367.5935472436373</v>
       </c>
       <c r="D40" t="n">
-        <v>757.1067645494038</v>
+        <v>367.5935472436373</v>
       </c>
       <c r="E40" t="n">
-        <v>596.1959494177233</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="F40" t="n">
-        <v>431.5648235283147</v>
+        <v>206.6827321119568</v>
       </c>
       <c r="G40" t="n">
-        <v>265.3685283624266</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="H40" t="n">
-        <v>125.1329440640648</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I40" t="n">
         <v>40.48643694606873</v>
@@ -7338,16 +7338,16 @@
         <v>402.1925459421785</v>
       </c>
       <c r="L40" t="n">
-        <v>815.6863250168146</v>
+        <v>506.8233170565554</v>
       </c>
       <c r="M40" t="n">
-        <v>1266.896543402695</v>
+        <v>958.033535442436</v>
       </c>
       <c r="N40" t="n">
-        <v>1373.796468531156</v>
+        <v>1396.967762018482</v>
       </c>
       <c r="O40" t="n">
-        <v>1541.657620062866</v>
+        <v>1802.555103535984</v>
       </c>
       <c r="P40" t="n">
         <v>1872.284155743751</v>
@@ -7356,28 +7356,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R40" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S40" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T40" t="n">
-        <v>1751.400239417419</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U40" t="n">
-        <v>1668.855252933335</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="V40" t="n">
-        <v>1394.969507872857</v>
+        <v>1347.369476315507</v>
       </c>
       <c r="W40" t="n">
-        <v>1115.899843381732</v>
+        <v>1068.299811824381</v>
       </c>
       <c r="X40" t="n">
-        <v>1115.899843381732</v>
+        <v>829.9559496840645</v>
       </c>
       <c r="Y40" t="n">
-        <v>1115.899843381732</v>
+        <v>605.2202510728292</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1239.918148607557</v>
+        <v>1152.823096531402</v>
       </c>
       <c r="C41" t="n">
-        <v>1239.918148607557</v>
+        <v>1152.823096531402</v>
       </c>
       <c r="D41" t="n">
-        <v>1239.918148607557</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="E41" t="n">
-        <v>1154.737524722578</v>
+        <v>748.3591666244624</v>
       </c>
       <c r="F41" t="n">
-        <v>733.707112676266</v>
+        <v>327.3287545781499</v>
       </c>
       <c r="G41" t="n">
         <v>327.3287545781499</v>
@@ -7408,13 +7408,13 @@
         <v>40.48643694606873</v>
       </c>
       <c r="I41" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746554</v>
       </c>
       <c r="J41" t="n">
-        <v>167.5334271492898</v>
+        <v>167.5334271492899</v>
       </c>
       <c r="K41" t="n">
-        <v>372.2593058752964</v>
+        <v>372.2593058752965</v>
       </c>
       <c r="L41" t="n">
         <v>641.1850750879078</v>
@@ -7426,7 +7426,7 @@
         <v>1272.218803576257</v>
       </c>
       <c r="O41" t="n">
-        <v>1568.017893256778</v>
+        <v>1568.017893256777</v>
       </c>
       <c r="P41" t="n">
         <v>1806.502667397418</v>
@@ -7441,22 +7441,22 @@
         <v>2024.321847303436</v>
       </c>
       <c r="T41" t="n">
-        <v>2024.321847303436</v>
+        <v>1812.402164354919</v>
       </c>
       <c r="U41" t="n">
-        <v>2024.321847303436</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="V41" t="n">
-        <v>2024.321847303436</v>
+        <v>1555.529666695153</v>
       </c>
       <c r="W41" t="n">
-        <v>1640.561546438605</v>
+        <v>1171.769365830322</v>
       </c>
       <c r="X41" t="n">
-        <v>1239.918148607557</v>
+        <v>1152.823096531402</v>
       </c>
       <c r="Y41" t="n">
-        <v>1239.918148607557</v>
+        <v>1152.823096531402</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>685.1682898090091</v>
+        <v>685.1682898090093</v>
       </c>
       <c r="C42" t="n">
-        <v>551.1732185579548</v>
+        <v>551.1732185579549</v>
       </c>
       <c r="D42" t="n">
-        <v>434.2760607773472</v>
+        <v>434.2760607773473</v>
       </c>
       <c r="E42" t="n">
-        <v>313.7832447696752</v>
+        <v>313.7832447696753</v>
       </c>
       <c r="F42" t="n">
-        <v>204.8233649521798</v>
+        <v>204.8233649521799</v>
       </c>
       <c r="G42" t="n">
-        <v>99.09057352692763</v>
+        <v>99.09057352692774</v>
       </c>
       <c r="H42" t="n">
         <v>40.48643694606873</v>
@@ -7511,31 +7511,31 @@
         <v>1668.259056675767</v>
       </c>
       <c r="Q42" t="n">
-        <v>2006.22131270252</v>
+        <v>1918.251596225539</v>
       </c>
       <c r="R42" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="S42" t="n">
-        <v>1939.686028373151</v>
+        <v>1939.686028373152</v>
       </c>
       <c r="T42" t="n">
-        <v>1785.412051570317</v>
+        <v>1785.412051570318</v>
       </c>
       <c r="U42" t="n">
-        <v>1588.14395921251</v>
+        <v>1588.143959212511</v>
       </c>
       <c r="V42" t="n">
-        <v>1374.432432205544</v>
+        <v>1374.432432205545</v>
       </c>
       <c r="W42" t="n">
         <v>1161.199263941873</v>
       </c>
       <c r="X42" t="n">
-        <v>984.8732820807658</v>
+        <v>984.8732820807659</v>
       </c>
       <c r="Y42" t="n">
-        <v>825.4713224445958</v>
+        <v>825.4713224445959</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1087.694781664777</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="C43" t="n">
-        <v>916.6014092264938</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="D43" t="n">
-        <v>757.1067645494038</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="E43" t="n">
-        <v>596.1959494177233</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="F43" t="n">
-        <v>431.5648235283147</v>
+        <v>291.3292392299529</v>
       </c>
       <c r="G43" t="n">
-        <v>265.3685283624266</v>
+        <v>125.1329440640648</v>
       </c>
       <c r="H43" t="n">
         <v>125.1329440640648</v>
@@ -7578,10 +7578,10 @@
         <v>815.6863250168146</v>
       </c>
       <c r="M43" t="n">
-        <v>1266.896543402695</v>
+        <v>921.9301938884097</v>
       </c>
       <c r="N43" t="n">
-        <v>1373.796468531156</v>
+        <v>1136.070278545364</v>
       </c>
       <c r="O43" t="n">
         <v>1541.657620062866</v>
@@ -7593,28 +7593,28 @@
         <v>2024.321847303436</v>
       </c>
       <c r="R43" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S43" t="n">
-        <v>1986.445114104106</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T43" t="n">
-        <v>1986.445114104106</v>
+        <v>1777.804567240561</v>
       </c>
       <c r="U43" t="n">
-        <v>1986.445114104106</v>
+        <v>1495.063915927153</v>
       </c>
       <c r="V43" t="n">
-        <v>1986.445114104106</v>
+        <v>1221.178170866675</v>
       </c>
       <c r="W43" t="n">
-        <v>1707.37544961298</v>
+        <v>942.1085063755493</v>
       </c>
       <c r="X43" t="n">
-        <v>1500.130186670057</v>
+        <v>703.7646442352326</v>
       </c>
       <c r="Y43" t="n">
-        <v>1275.394488058822</v>
+        <v>479.0289456239973</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>748.3591666244623</v>
+        <v>150.5392869577296</v>
       </c>
       <c r="C44" t="n">
-        <v>748.3591666244623</v>
+        <v>150.5392869577296</v>
       </c>
       <c r="D44" t="n">
-        <v>748.3591666244623</v>
+        <v>150.5392869577296</v>
       </c>
       <c r="E44" t="n">
-        <v>748.3591666244623</v>
+        <v>150.5392869577296</v>
       </c>
       <c r="F44" t="n">
-        <v>327.3287545781499</v>
+        <v>150.5392869577296</v>
       </c>
       <c r="G44" t="n">
-        <v>327.3287545781499</v>
+        <v>150.5392869577296</v>
       </c>
       <c r="H44" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I44" t="n">
-        <v>44.64574590746543</v>
+        <v>44.64574590746565</v>
       </c>
       <c r="J44" t="n">
-        <v>167.5334271492897</v>
+        <v>167.5334271492901</v>
       </c>
       <c r="K44" t="n">
-        <v>372.2593058752963</v>
+        <v>372.2593058752967</v>
       </c>
       <c r="L44" t="n">
-        <v>641.1850750879075</v>
+        <v>641.185075087908</v>
       </c>
       <c r="M44" t="n">
-        <v>953.2429319501305</v>
+        <v>953.2429319501312</v>
       </c>
       <c r="N44" t="n">
         <v>1272.218803576257</v>
       </c>
       <c r="O44" t="n">
-        <v>1568.017893256777</v>
+        <v>1568.017893256778</v>
       </c>
       <c r="P44" t="n">
         <v>1806.502667397418</v>
       </c>
       <c r="Q44" t="n">
-        <v>1966.084838463272</v>
+        <v>1966.084838463273</v>
       </c>
       <c r="R44" t="n">
         <v>2024.321847303436</v>
@@ -7681,19 +7681,19 @@
         <v>1942.589711028803</v>
       </c>
       <c r="U44" t="n">
-        <v>1685.717213369037</v>
+        <v>1685.717213369038</v>
       </c>
       <c r="V44" t="n">
         <v>1335.879658705518</v>
       </c>
       <c r="W44" t="n">
-        <v>952.1193578406862</v>
+        <v>952.1193578406869</v>
       </c>
       <c r="X44" t="n">
-        <v>748.3591666244623</v>
+        <v>551.4759600096395</v>
       </c>
       <c r="Y44" t="n">
-        <v>748.3591666244623</v>
+        <v>150.5392869577296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>685.1682898090088</v>
+        <v>685.1682898090091</v>
       </c>
       <c r="C45" t="n">
-        <v>551.1732185579544</v>
+        <v>551.1732185579548</v>
       </c>
       <c r="D45" t="n">
-        <v>434.2760607773469</v>
+        <v>434.2760607773472</v>
       </c>
       <c r="E45" t="n">
-        <v>313.7832447696749</v>
+        <v>313.7832447696752</v>
       </c>
       <c r="F45" t="n">
-        <v>204.8233649521794</v>
+        <v>204.8233649521798</v>
       </c>
       <c r="G45" t="n">
-        <v>99.09057352692729</v>
+        <v>99.09057352692761</v>
       </c>
       <c r="H45" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="I45" t="n">
-        <v>62.57863487475245</v>
+        <v>43.01083102505508</v>
       </c>
       <c r="J45" t="n">
-        <v>371.8168719145381</v>
+        <v>208.7594707336911</v>
       </c>
       <c r="K45" t="n">
-        <v>515.5388644458296</v>
+        <v>352.4814632649827</v>
       </c>
       <c r="L45" t="n">
-        <v>727.551448967487</v>
+        <v>564.4940477866401</v>
       </c>
       <c r="M45" t="n">
-        <v>982.799666726455</v>
+        <v>819.7422655456082</v>
       </c>
       <c r="N45" t="n">
-        <v>1250.639046485604</v>
+        <v>1087.581645304758</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.660735239584</v>
+        <v>1323.603334058737</v>
       </c>
       <c r="P45" t="n">
-        <v>1668.259056675767</v>
+        <v>1505.20165549492</v>
       </c>
       <c r="Q45" t="n">
-        <v>2006.22131270252</v>
+        <v>2006.221312702521</v>
       </c>
       <c r="R45" t="n">
         <v>2024.321847303436</v>
@@ -7769,10 +7769,10 @@
         <v>1161.199263941873</v>
       </c>
       <c r="X45" t="n">
-        <v>984.8732820807654</v>
+        <v>984.8732820807658</v>
       </c>
       <c r="Y45" t="n">
-        <v>825.4713224445954</v>
+        <v>825.4713224445958</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.2243102318034</v>
+        <v>597.8594541169284</v>
       </c>
       <c r="C46" t="n">
-        <v>612.1309377935199</v>
+        <v>597.8594541169284</v>
       </c>
       <c r="D46" t="n">
-        <v>452.63629311643</v>
+        <v>438.3648094398384</v>
       </c>
       <c r="E46" t="n">
-        <v>291.7254779847494</v>
+        <v>277.4539943081579</v>
       </c>
       <c r="F46" t="n">
-        <v>206.6827321119568</v>
+        <v>112.8228684187492</v>
       </c>
       <c r="G46" t="n">
-        <v>40.48643694606871</v>
+        <v>112.8228684187492</v>
       </c>
       <c r="H46" t="n">
-        <v>40.48643694606871</v>
+        <v>112.8228684187492</v>
       </c>
       <c r="I46" t="n">
-        <v>40.48643694606871</v>
+        <v>40.48643694606873</v>
       </c>
       <c r="J46" t="n">
         <v>127.6105279304289</v>
       </c>
       <c r="K46" t="n">
-        <v>402.1925459421785</v>
+        <v>402.1925459421786</v>
       </c>
       <c r="L46" t="n">
-        <v>815.6863250168146</v>
+        <v>501.7072137817917</v>
       </c>
       <c r="M46" t="n">
-        <v>1266.896543402695</v>
+        <v>952.9174321676724</v>
       </c>
       <c r="N46" t="n">
-        <v>1451.145037964104</v>
+        <v>1136.070278545365</v>
       </c>
       <c r="O46" t="n">
-        <v>1541.657620062865</v>
+        <v>1541.657620062866</v>
       </c>
       <c r="P46" t="n">
-        <v>1872.28415574375</v>
+        <v>1872.284155743751</v>
       </c>
       <c r="Q46" t="n">
         <v>2024.321847303436</v>
       </c>
       <c r="R46" t="n">
-        <v>1986.445114104106</v>
+        <v>2024.321847303436</v>
       </c>
       <c r="S46" t="n">
-        <v>1818.423362863341</v>
+        <v>1856.300096062672</v>
       </c>
       <c r="T46" t="n">
-        <v>1583.378488176654</v>
+        <v>1621.255221375985</v>
       </c>
       <c r="U46" t="n">
-        <v>1300.637836863246</v>
+        <v>1338.514570062576</v>
       </c>
       <c r="V46" t="n">
-        <v>1300.637836863246</v>
+        <v>1064.628825002098</v>
       </c>
       <c r="W46" t="n">
-        <v>1021.56817237212</v>
+        <v>785.5591605109728</v>
       </c>
       <c r="X46" t="n">
-        <v>783.2243102318034</v>
+        <v>785.5591605109728</v>
       </c>
       <c r="Y46" t="n">
-        <v>783.2243102318034</v>
+        <v>785.5591605109728</v>
       </c>
     </row>
   </sheetData>
@@ -7978,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.1286462554515</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K2" t="n">
-        <v>22.89962335916383</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L2" t="n">
-        <v>13.31283239473389</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M2" t="n">
         <v>1.857412192921856</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.455334146684066</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P2" t="n">
-        <v>18.77004728651484</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q2" t="n">
         <v>33.80255651301093</v>
@@ -8139,10 +8139,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K4" t="n">
-        <v>25.11327702096817</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L4" t="n">
-        <v>19.90215841909199</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M4" t="n">
         <v>19.6511016040668</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.1286462554515</v>
+        <v>29.12864625545149</v>
       </c>
       <c r="K5" t="n">
-        <v>22.89962335916383</v>
+        <v>22.89962335916381</v>
       </c>
       <c r="L5" t="n">
-        <v>13.31283239473389</v>
+        <v>13.31283239473387</v>
       </c>
       <c r="M5" t="n">
         <v>1.857412192921856</v>
@@ -8230,10 +8230,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>5.455334146684066</v>
+        <v>5.455334146684052</v>
       </c>
       <c r="P5" t="n">
-        <v>18.77004728651484</v>
+        <v>18.77004728651482</v>
       </c>
       <c r="Q5" t="n">
         <v>33.80255651301093</v>
@@ -8376,10 +8376,10 @@
         <v>34.91943921434874</v>
       </c>
       <c r="K7" t="n">
-        <v>25.11327702096817</v>
+        <v>25.11327702096816</v>
       </c>
       <c r="L7" t="n">
-        <v>19.90215841909199</v>
+        <v>19.90215841909198</v>
       </c>
       <c r="M7" t="n">
         <v>19.6511016040668</v>
@@ -8455,10 +8455,10 @@
         <v>30.09747728131218</v>
       </c>
       <c r="K8" t="n">
-        <v>23.43011358499584</v>
+        <v>21.58238750890048</v>
       </c>
       <c r="L8" t="n">
-        <v>13.45175532158187</v>
+        <v>11.67868484452067</v>
       </c>
       <c r="M8" t="n">
         <v>0.03910817678591627</v>
@@ -8473,10 +8473,10 @@
         <v>17.28093897160524</v>
       </c>
       <c r="Q8" t="n">
-        <v>32.68429818395125</v>
+        <v>34.5320242600466</v>
       </c>
       <c r="R8" t="n">
-        <v>53.95236302478607</v>
+        <v>55.72543350184727</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8613,10 +8613,10 @@
         <v>36.4387608801497</v>
       </c>
       <c r="K10" t="n">
-        <v>26.42133376910127</v>
+        <v>26.34667817006712</v>
       </c>
       <c r="L10" t="n">
-        <v>20.98463795800807</v>
+        <v>19.21156748094687</v>
       </c>
       <c r="M10" t="n">
         <v>18.92297028778722</v>
@@ -8628,7 +8628,7 @@
         <v>22.40367010010781</v>
       </c>
       <c r="P10" t="n">
-        <v>26.968289224719</v>
+        <v>28.81601530081436</v>
       </c>
       <c r="Q10" t="n">
         <v>43.25962626275902</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17.26846561599999</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19.76545843403778</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>164.549773460932</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.97351673236882</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.95817503200906</v>
+        <v>12.8258886552718</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>199.3688773843007</v>
       </c>
       <c r="L13" t="n">
-        <v>120.3843598469901</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>117.9786767561821</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>66.88994625661262</v>
+        <v>175.8584291375</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>122.3202008597737</v>
       </c>
       <c r="Q13" t="n">
         <v>127.5494547533709</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>14.70128436951479</v>
+        <v>14.70128436951478</v>
       </c>
       <c r="J15" t="n">
-        <v>164.549773460932</v>
+        <v>88.5173626445052</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.8258886552718</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>65.65794306195595</v>
+        <v>7.352495282391878</v>
       </c>
       <c r="K16" t="n">
-        <v>119.5324175766844</v>
+        <v>199.3688773843007</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>178.0868137369347</v>
+        <v>87.45024327215084</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>187.5041632199789</v>
       </c>
       <c r="P16" t="n">
         <v>199.9282760679553</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>9.150849970123481</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>19.76545843403778</v>
+        <v>11.50849122436781</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>16.86335443914547</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>253.7081061013716</v>
+        <v>148.8608669494226</v>
       </c>
       <c r="R18" t="n">
-        <v>2.658898055788384</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>254.3723854883858</v>
+        <v>222.7631553063567</v>
       </c>
       <c r="M19" t="n">
-        <v>160.1520707192495</v>
+        <v>80.09366963947319</v>
       </c>
       <c r="N19" t="n">
-        <v>248.1439169357113</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>261.3933801784555</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>243.357987788774</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2.640805755955029</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.063330413175073</v>
+        <v>11.50849122436781</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>230.6508802833904</v>
       </c>
       <c r="K21" t="n">
-        <v>222.143300969189</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>59.13028759219083</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>2.65889805578837</v>
+        <v>7.068286137730333</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>65.65794306195595</v>
+        <v>1.855957028826793</v>
       </c>
       <c r="K22" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>254.3723854883858</v>
+        <v>222.7631553063567</v>
       </c>
       <c r="M22" t="n">
-        <v>249.8606058497696</v>
+        <v>122.9116010435357</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>145.8069870169291</v>
+        <v>229.3478865338284</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>243.357987788774</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2.640805755955029</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.3193388037194</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>81.42525534725874</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>403.8820839126366</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,13 +9795,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>15.65674446332968</v>
       </c>
       <c r="K25" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>70.82572414757601</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>348.4508580952379</v>
@@ -9813,7 +9813,7 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
         <v>127.5494547533709</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>150.3193388037194</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>170.0847972377568</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K28" t="n">
-        <v>208.3638319047618</v>
+        <v>23.93045033463838</v>
       </c>
       <c r="L28" t="n">
         <v>317.1506174091142</v>
@@ -10044,7 +10044,7 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N28" t="n">
-        <v>89.06329001885121</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O28" t="n">
         <v>318.2573327462026</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>360.9067319962717</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>258.9430967094549</v>
+        <v>144.1660656976617</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10272,22 +10272,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>208.3638319047618</v>
+        <v>174.5064399028242</v>
       </c>
       <c r="L31" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>216.6127447722215</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
         <v>246.129700984478</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>170.0847972377573</v>
+        <v>239.1776382754176</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,22 +10506,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>65.65794306195595</v>
+        <v>15.65674446332968</v>
       </c>
       <c r="K34" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>78.12986811408996</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P34" t="n">
         <v>263.5328115890082</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>12.33241430959855</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>403.8820839126366</v>
+        <v>150.3193388037191</v>
       </c>
       <c r="R36" t="n">
         <v>88.85829947169823</v>
@@ -10749,19 +10749,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>108.3233934631252</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>5.167781085620177</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>396.4490397881976</v>
+        <v>170.0847972377573</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10986,19 +10986,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
-        <v>317.1506174091142</v>
+        <v>5.167781085620092</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>78.12986811408996</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>239.1776382754176</v>
+        <v>150.3193388037195</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11226,13 +11226,13 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>108.3233934631252</v>
       </c>
       <c r="O43" t="n">
-        <v>78.12986811408996</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>101.1907137812966</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>239.1776382754172</v>
+        <v>403.8820839126367</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11460,16 +11460,16 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>78.12986811408939</v>
+        <v>77.02315277700147</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
         <v>263.5328115890082</v>
@@ -23026,19 +23026,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>398.5715645317747</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>408.3490872521769</v>
+        <v>408.5693362004475</v>
       </c>
       <c r="F8" t="n">
-        <v>415.1926307980245</v>
+        <v>414.972381849754</v>
       </c>
       <c r="G8" t="n">
         <v>404.1099319999439</v>
       </c>
       <c r="H8" t="n">
-        <v>302.3605992765773</v>
+        <v>300.5128732004819</v>
       </c>
       <c r="I8" t="n">
         <v>65.01419717276222</v>
@@ -23071,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>121.8265235513953</v>
+        <v>119.9787974753</v>
       </c>
       <c r="T8" t="n">
         <v>217.6596635000282</v>
@@ -23086,7 +23086,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>394.7892377766416</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23102,10 +23102,10 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C9" t="n">
-        <v>130.8073944624484</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>113.8804601267061</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -23114,7 +23114,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.6360644509761</v>
+        <v>103.7883383748808</v>
       </c>
       <c r="H9" t="n">
         <v>67.29547797745488</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>101.6322018848435</v>
+        <v>99.78447580874814</v>
       </c>
       <c r="T9" t="n">
         <v>156.6031329288336</v>
@@ -23159,7 +23159,7 @@
         <v>193.7311317366657</v>
       </c>
       <c r="V9" t="n">
-        <v>211.5744117368965</v>
+        <v>209.7266856608011</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -23168,7 +23168,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y9" t="n">
-        <v>155.9602139637129</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="10">
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>73.70878111087413</v>
+        <v>71.86105503477877</v>
       </c>
       <c r="S10" t="n">
-        <v>178.5286100828844</v>
+        <v>180.3763361589797</v>
       </c>
       <c r="T10" t="n">
-        <v>234.507928020338</v>
+        <v>236.1354051481628</v>
       </c>
       <c r="U10" t="n">
-        <v>278.1094461183281</v>
+        <v>278.3296950665987</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>269.2991615337779</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>274.431241770119</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.6406155490276</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>266.0003681113171</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>265.9047450233351</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>260.3006908513426</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>243.0564750511201</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>197.2635504517531</v>
       </c>
       <c r="G11" t="n">
-        <v>403.5259446175581</v>
+        <v>183.6944827100391</v>
       </c>
       <c r="H11" t="n">
-        <v>296.3798384967197</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I11" t="n">
-        <v>42.50002361333731</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>102.2545262986572</v>
       </c>
       <c r="T11" t="n">
-        <v>215.1032587336348</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.4006822912019</v>
+        <v>254.3786899365281</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23326,7 +23326,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.0297547311225</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23345,16 +23345,16 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>105.3236036548251</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H12" t="n">
-        <v>64.27776449883871</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>95.82837964054764</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>155.343696649611</v>
+        <v>154.7508334693185</v>
       </c>
       <c r="U12" t="n">
-        <v>195.3380522331648</v>
+        <v>195.3283754674364</v>
       </c>
       <c r="V12" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>211.1008365810345</v>
+        <v>36.45572492057147</v>
       </c>
       <c r="X12" t="n">
-        <v>42.46418271166641</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.68934028328084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23430,13 +23430,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>165.077711138374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>143.6643610718652</v>
+        <v>142.5679993783892</v>
       </c>
       <c r="I13" t="n">
-        <v>100.1409282383696</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>61.93025822024585</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S13" t="n">
-        <v>175.8111464336796</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>111.5996732228894</v>
+        <v>14.93269702790727</v>
       </c>
       <c r="U13" t="n">
-        <v>139.8242838941549</v>
+        <v>205.6107256730666</v>
       </c>
       <c r="V13" t="n">
-        <v>131.0282878533458</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>136.1603680896869</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>16.40386604481725</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>186.5624103937484</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>180.8627331337739</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>190.640255854176</v>
       </c>
       <c r="F14" t="n">
         <v>197.2635504517531</v>
@@ -23512,10 +23512,10 @@
         <v>403.2510401841353</v>
       </c>
       <c r="H14" t="n">
-        <v>100.1790576447438</v>
+        <v>293.5644734679276</v>
       </c>
       <c r="I14" t="n">
-        <v>31.90177044380179</v>
+        <v>31.90177044380177</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>102.2545262986572</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>213.8998645763261</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.3786899365281</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>249.5515966945874</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23573,25 +23573,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>29.14146698848135</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>65.42402939820298</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.1765168157536</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>62.85721528991137</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>154.7508334693185</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>195.3283754674364</v>
@@ -23639,10 +23639,10 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.08142724015528</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>142.5679993783892</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.43258009724633</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>56.38567239618433</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6621429915595</v>
+        <v>115.925317738284</v>
       </c>
       <c r="T16" t="n">
-        <v>14.9326970279073</v>
+        <v>234.4892545020035</v>
       </c>
       <c r="U16" t="n">
         <v>279.9361575053235</v>
@@ -23718,10 +23718,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>16.40386604481728</v>
+        <v>16.40386604481725</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>2.931784151026733</v>
       </c>
     </row>
     <row r="17">
@@ -23737,22 +23737,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>124.8607699269322</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>234.5534922218029</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>144.4309912414873</v>
       </c>
       <c r="G17" t="n">
-        <v>402.9449885914601</v>
+        <v>403.0777220913091</v>
       </c>
       <c r="H17" t="n">
-        <v>290.4301225944424</v>
+        <v>19.40036286540919</v>
       </c>
       <c r="I17" t="n">
-        <v>20.10271641719008</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>95.28037563057046</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.5601237293903</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3542058091141</v>
+        <v>254.364824489102</v>
       </c>
       <c r="V17" t="n">
-        <v>33.48890586422993</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>83.78669060008281</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.07703306873663</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -23813,22 +23813,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>70.2216231777758</v>
+        <v>105.0837834607099</v>
       </c>
       <c r="H18" t="n">
-        <v>61.27571533935595</v>
+        <v>61.96160630830454</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>154.0907978405444</v>
+        <v>73.51361915701673</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3222745888151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="19">
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>135.4876877216468</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
         <v>159.3017069803637</v>
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8171142651918</v>
+        <v>164.8766539437102</v>
       </c>
       <c r="H19" t="n">
-        <v>141.3474179630278</v>
+        <v>141.8767798320363</v>
       </c>
       <c r="I19" t="n">
-        <v>92.30406954303811</v>
+        <v>94.09459005702602</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>50.21287517698426</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>171.2696536528602</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>233.902676521206</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>279.9286692757814</v>
+        <v>7.542800210247663</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.889851161852334</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>183.0053096879704</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.26869461519033</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>93.17307152720832</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>87.56901735521581</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -23983,13 +23983,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.9449885914601</v>
+        <v>403.0777220913091</v>
       </c>
       <c r="H20" t="n">
-        <v>290.4301225944424</v>
+        <v>19.40036286540919</v>
       </c>
       <c r="I20" t="n">
-        <v>20.10271641719005</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>212.5601237293903</v>
+        <v>213.1411646249794</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3542058091141</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>73.95006243252209</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>245.5030366138364</v>
       </c>
       <c r="X20" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>216.6491612710234</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24050,22 +24050,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>105.0127647772765</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>61.96160630830454</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>79.3508010301849</v>
+        <v>91.37382471915244</v>
       </c>
       <c r="T21" t="n">
-        <v>154.0907978405444</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>80.54050312173813</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>98.7162133273813</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.8766539437102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>141.8767798320363</v>
       </c>
       <c r="I22" t="n">
-        <v>92.30406954303811</v>
+        <v>94.09459005702602</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>50.21287517698426</v>
+        <v>52.88999563109073</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>172.3072678684935</v>
       </c>
       <c r="T22" t="n">
-        <v>233.902676521206</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9286692757814</v>
+        <v>123.0102353666598</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -24208,7 +24208,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24217,7 +24217,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>256.6230932750108</v>
       </c>
       <c r="G23" t="n">
         <v>402.3145745171349</v>
@@ -24259,13 +24259,13 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T23" t="n">
-        <v>129.1804387356306</v>
+        <v>209.8004861190321</v>
       </c>
       <c r="U23" t="n">
         <v>254.3037726831681</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>94.94879309598308</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.8332284553781</v>
+        <v>119.6143740611062</v>
       </c>
       <c r="I25" t="n">
         <v>83.80004204681615</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
@@ -24454,13 +24454,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H26" t="n">
-        <v>283.9738944557603</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T26" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>216.2518314444137</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>340.8046542210279</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>32.24659711322877</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I28" t="n">
         <v>83.80004204681615</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>43.11329042565995</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>5.100539446940218</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>283.9738944557603</v>
@@ -24733,19 +24733,19 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T29" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>116.2981394519976</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>32.04263598381294</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>157.8996982303191</v>
@@ -24852,7 +24852,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5343322142292</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>37.4979658673368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.2827486470803</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>232.6944259398202</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>283.9738944557603</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,13 +24970,13 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T32" t="n">
-        <v>88.67810669345998</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3037726831681</v>
+        <v>139.266436450235</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -25080,13 +25080,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>61.12265492148876</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>37.4979658673368</v>
       </c>
       <c r="S34" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>232.6944259398202</v>
       </c>
       <c r="U34" t="n">
-        <v>215.6656340539656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>148.7313475541383</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>168.9365582228273</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25323,13 +25323,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5343322142292</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I37" t="n">
         <v>83.80004204681615</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>189.176476536742</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>127.1715508597913</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>329.1353479441024</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>321.4276358898406</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>402.3145745171349</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>283.9738944557603</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3037726831681</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>119.9547112531046</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>83.80004204681615</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S40" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>198.1937081810316</v>
+        <v>279.9132448002744</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>325.867995682143</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.3145745171349</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>80.91481491188679</v>
       </c>
       <c r="T41" t="n">
-        <v>209.8004861190321</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3037726831681</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>377.8801572468062</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.8332284553781</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.4979658673368</v>
       </c>
       <c r="S43" t="n">
-        <v>166.3415337283568</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>232.6944259398202</v>
+        <v>154.9838524059309</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9132448002744</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>30.78761320541915</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>402.3145745171349</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>175.021572944216</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>194.9143745486753</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>78.79249621644998</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5343322142292</v>
       </c>
       <c r="H46" t="n">
         <v>138.8332284553781</v>
       </c>
       <c r="I46" t="n">
-        <v>83.80004204681615</v>
+        <v>12.18697488886249</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.49796586733679</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>248985.0456279129</v>
+        <v>312751.2365350343</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>312751.2365350343</v>
+        <v>312751.2365350344</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>388371.1135795214</v>
+        <v>355575.0387395566</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>388371.1135795214</v>
+        <v>355575.0387395566</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>544586.5635524428</v>
+        <v>544586.5635524429</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>544586.5635524429</v>
+        <v>544586.5635524428</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>544586.5635524428</v>
+        <v>544586.5635524429</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>544586.5635524427</v>
+        <v>544586.5635524428</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>544586.5635524427</v>
+        <v>544586.5635524428</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>544586.5635524428</v>
+        <v>544586.5635524429</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45718.27899550768</v>
+        <v>45718.2789955077</v>
       </c>
       <c r="C2" t="n">
-        <v>45718.27899550767</v>
+        <v>45718.2789955077</v>
       </c>
       <c r="D2" t="n">
         <v>46230.48177907428</v>
       </c>
       <c r="E2" t="n">
-        <v>83802.51478213072</v>
+        <v>105050.9142481637</v>
       </c>
       <c r="F2" t="n">
         <v>105050.9142481636</v>
       </c>
       <c r="G2" t="n">
-        <v>129944.7430299841</v>
+        <v>119148.3769991116</v>
       </c>
       <c r="H2" t="n">
-        <v>129944.7430299841</v>
+        <v>119148.3769991116</v>
       </c>
       <c r="I2" t="n">
-        <v>181341.8264785711</v>
+        <v>181341.8264785712</v>
       </c>
       <c r="J2" t="n">
+        <v>181341.8264785712</v>
+      </c>
+      <c r="K2" t="n">
         <v>181341.8264785713</v>
-      </c>
-      <c r="K2" t="n">
-        <v>181341.8264785712</v>
       </c>
       <c r="L2" t="n">
         <v>181341.8264785712</v>
@@ -26355,7 +26355,7 @@
         <v>181341.8264785712</v>
       </c>
       <c r="P2" t="n">
-        <v>181341.8264785712</v>
+        <v>181341.8264785713</v>
       </c>
     </row>
     <row r="3">
@@ -26371,22 +26371,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2779.984380914592</v>
+        <v>2779.984380914617</v>
       </c>
       <c r="E3" t="n">
-        <v>157992.4731457483</v>
+        <v>236649.5875082982</v>
       </c>
       <c r="F3" t="n">
-        <v>76813.62794862466</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>84760.75282944442</v>
+        <v>48000.31229539198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>169426.6765290723</v>
+        <v>205040.0063027341</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,16 +26395,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>467.6428403250748</v>
+        <v>467.6428403250496</v>
       </c>
       <c r="M3" t="n">
-        <v>34457.65480465841</v>
+        <v>54253.9116197074</v>
       </c>
       <c r="N3" t="n">
-        <v>19456.50066989096</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>22451.22599582577</v>
+        <v>12714.20820650968</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9140.082980491403</v>
+        <v>9140.082980491399</v>
       </c>
       <c r="C4" t="n">
-        <v>9140.082980491403</v>
+        <v>9140.082980491399</v>
       </c>
       <c r="D4" t="n">
-        <v>8955.298816191178</v>
+        <v>8955.29881619118</v>
       </c>
       <c r="E4" t="n">
-        <v>7010.395868948195</v>
+        <v>9461.20639737015</v>
       </c>
       <c r="F4" t="n">
-        <v>9461.20639737015</v>
+        <v>9461.206397370144</v>
       </c>
       <c r="G4" t="n">
-        <v>13246.47785914528</v>
+        <v>11604.81893292239</v>
       </c>
       <c r="H4" t="n">
-        <v>13246.47785914528</v>
+        <v>11604.81893292239</v>
       </c>
       <c r="I4" t="n">
+        <v>21149.02438694226</v>
+      </c>
+      <c r="J4" t="n">
         <v>21149.02438694225</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>21149.02438694226</v>
       </c>
-      <c r="K4" t="n">
-        <v>21149.02438694224</v>
-      </c>
       <c r="L4" t="n">
-        <v>21149.02438694227</v>
+        <v>21149.02438694226</v>
       </c>
       <c r="M4" t="n">
         <v>21149.02438694226</v>
@@ -26459,7 +26459,7 @@
         <v>21149.02438694226</v>
       </c>
       <c r="P4" t="n">
-        <v>21149.02438694225</v>
+        <v>21149.02438694226</v>
       </c>
     </row>
     <row r="5">
@@ -26478,16 +26478,16 @@
         <v>36619.79760845381</v>
       </c>
       <c r="E5" t="n">
-        <v>14565.88430605617</v>
+        <v>20886.45015162826</v>
       </c>
       <c r="F5" t="n">
         <v>20886.45015162826</v>
       </c>
       <c r="G5" t="n">
-        <v>28218.34934514418</v>
+        <v>25038.53043948575</v>
       </c>
       <c r="H5" t="n">
-        <v>28218.34934514418</v>
+        <v>25038.53043948575</v>
       </c>
       <c r="I5" t="n">
         <v>43385.32273194158</v>
@@ -26496,7 +26496,7 @@
         <v>43385.32273194158</v>
       </c>
       <c r="K5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
       <c r="L5" t="n">
         <v>43385.32273194158</v>
@@ -26511,7 +26511,7 @@
         <v>43385.32273194158</v>
       </c>
       <c r="P5" t="n">
-        <v>43385.32273194157</v>
+        <v>43385.32273194158</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124687.5784704275</v>
+        <v>-126062.4119618881</v>
       </c>
       <c r="C6" t="n">
-        <v>126.8944768970541</v>
+        <v>-1247.939014563562</v>
       </c>
       <c r="D6" t="n">
-        <v>-2124.599026485295</v>
+        <v>-3496.586946926148</v>
       </c>
       <c r="E6" t="n">
-        <v>-95766.2385386219</v>
+        <v>-162991.5375491899</v>
       </c>
       <c r="F6" t="n">
-        <v>-2110.370249459447</v>
+        <v>73658.04995910822</v>
       </c>
       <c r="G6" t="n">
-        <v>3719.162996250248</v>
+        <v>33537.82682875975</v>
       </c>
       <c r="H6" t="n">
-        <v>88479.91582569462</v>
+        <v>81538.13912415177</v>
       </c>
       <c r="I6" t="n">
-        <v>-52619.19716938504</v>
+        <v>-88853.89628182365</v>
       </c>
       <c r="J6" t="n">
-        <v>116807.4793596874</v>
+        <v>116186.1100209104</v>
       </c>
       <c r="K6" t="n">
-        <v>116807.4793596873</v>
+        <v>116186.1100209105</v>
       </c>
       <c r="L6" t="n">
-        <v>116339.8365193622</v>
+        <v>115718.4671805854</v>
       </c>
       <c r="M6" t="n">
-        <v>82349.8245550289</v>
+        <v>61932.19840120302</v>
       </c>
       <c r="N6" t="n">
-        <v>97350.97868979654</v>
+        <v>116186.1100209105</v>
       </c>
       <c r="O6" t="n">
-        <v>94356.2533638616</v>
+        <v>103471.9018144007</v>
       </c>
       <c r="P6" t="n">
-        <v>116807.4793596873</v>
+        <v>116186.1100209105</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>132.1034799553768</v>
       </c>
       <c r="E3" t="n">
-        <v>277.3703413238211</v>
+        <v>345.7528191377621</v>
       </c>
       <c r="F3" t="n">
-        <v>345.7528191377621</v>
+        <v>345.7528191377622</v>
       </c>
       <c r="G3" t="n">
-        <v>421.8831528157249</v>
+        <v>388.8656947282817</v>
       </c>
       <c r="H3" t="n">
-        <v>421.8831528157251</v>
+        <v>388.8656947282817</v>
       </c>
       <c r="I3" t="n">
         <v>578.6986538040985</v>
@@ -26779,7 +26779,7 @@
         <v>578.6986538040985</v>
       </c>
       <c r="P3" t="n">
-        <v>578.6986538040985</v>
+        <v>578.6986538040986</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>1.847726076095356</v>
       </c>
       <c r="E4" t="n">
-        <v>140.1185997565274</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="F4" t="n">
         <v>219.5565574740962</v>
       </c>
       <c r="G4" t="n">
-        <v>312.8502732526542</v>
+        <v>272.389116684362</v>
       </c>
       <c r="H4" t="n">
-        <v>312.8502732526542</v>
+        <v>272.389116684362</v>
       </c>
       <c r="I4" t="n">
         <v>506.0804618258591</v>
@@ -26816,7 +26816,7 @@
         <v>506.0804618258591</v>
       </c>
       <c r="K4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="L4" t="n">
         <v>506.0804618258591</v>
@@ -26831,7 +26831,7 @@
         <v>506.0804618258591</v>
       </c>
       <c r="P4" t="n">
-        <v>506.0804618258589</v>
+        <v>506.0804618258591</v>
       </c>
     </row>
   </sheetData>
@@ -26965,22 +26965,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.575886463669548</v>
+        <v>2.575886463669576</v>
       </c>
       <c r="E3" t="n">
-        <v>145.2668613684442</v>
+        <v>213.6493391823853</v>
       </c>
       <c r="F3" t="n">
-        <v>68.38247781394097</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>76.13033367796288</v>
+        <v>43.11287559051954</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>156.8155009883735</v>
+        <v>189.8329590758168</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>1.847726076095356</v>
       </c>
       <c r="E4" t="n">
-        <v>138.2708736804321</v>
+        <v>217.7088313980008</v>
       </c>
       <c r="F4" t="n">
-        <v>79.43795771756874</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>93.29371577855805</v>
+        <v>52.83255921026583</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>193.2301885732048</v>
+        <v>233.691345141497</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,16 +27041,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.847726076095455</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="M4" t="n">
-        <v>138.2708736804321</v>
+        <v>217.7088313980008</v>
       </c>
       <c r="N4" t="n">
-        <v>79.43795771756874</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>93.29371577855805</v>
+        <v>52.83255921026583</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>1.847726076095356</v>
       </c>
       <c r="M4" t="n">
-        <v>138.2708736804321</v>
+        <v>217.7088313980008</v>
       </c>
       <c r="N4" t="n">
-        <v>79.43795771756874</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>93.29371577855805</v>
+        <v>52.83255921026583</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,10 +31041,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5207139436852549</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H2" t="n">
-        <v>5.332761675766618</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I2" t="n">
         <v>20.07482431392581</v>
@@ -31053,10 +31053,10 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K2" t="n">
-        <v>66.2367663140533</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L2" t="n">
-        <v>82.17256566811093</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M2" t="n">
         <v>91.4328122641236</v>
@@ -31065,13 +31065,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>87.73444147909906</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P2" t="n">
-        <v>74.87931599436932</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q2" t="n">
-        <v>56.23124788614111</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R2" t="n">
         <v>32.70929726501893</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2786065218500873</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H3" t="n">
         <v>2.690752461025844</v>
@@ -31153,7 +31153,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R3" t="n">
-        <v>17.29804352328876</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S3" t="n">
         <v>5.174993947522452</v>
@@ -31162,7 +31162,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U3" t="n">
-        <v>0.01832937643750575</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I4" t="n">
-        <v>7.024217692960127</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J4" t="n">
         <v>16.51370646860668</v>
@@ -31217,19 +31217,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M4" t="n">
-        <v>36.61384089471324</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N4" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O4" t="n">
-        <v>33.01467251818139</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P4" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q4" t="n">
-        <v>19.55866661724779</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R4" t="n">
         <v>10.50235208868826</v>
@@ -31238,7 +31238,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T4" t="n">
-        <v>0.9979994908377441</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U4" t="n">
         <v>0.01274041903197122</v>
@@ -31278,10 +31278,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5207139436852549</v>
+        <v>0.520713943685255</v>
       </c>
       <c r="H5" t="n">
-        <v>5.332761675766618</v>
+        <v>5.332761675766619</v>
       </c>
       <c r="I5" t="n">
         <v>20.07482431392581</v>
@@ -31290,25 +31290,25 @@
         <v>44.19494507785645</v>
       </c>
       <c r="K5" t="n">
-        <v>66.2367663140533</v>
+        <v>66.23676631405331</v>
       </c>
       <c r="L5" t="n">
-        <v>82.17256566811093</v>
+        <v>82.17256566811095</v>
       </c>
       <c r="M5" t="n">
         <v>91.4328122641236</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>92.91229075661934</v>
       </c>
       <c r="O5" t="n">
-        <v>87.73444147909906</v>
+        <v>87.73444147909908</v>
       </c>
       <c r="P5" t="n">
-        <v>74.87931599436932</v>
+        <v>74.87931599436934</v>
       </c>
       <c r="Q5" t="n">
-        <v>56.23124788614111</v>
+        <v>56.23124788614112</v>
       </c>
       <c r="R5" t="n">
         <v>32.70929726501893</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2786065218500873</v>
+        <v>0.2786065218500874</v>
       </c>
       <c r="H6" t="n">
         <v>2.690752461025844</v>
@@ -31390,7 +31390,7 @@
         <v>35.56387812247782</v>
       </c>
       <c r="R6" t="n">
-        <v>17.29804352328876</v>
+        <v>17.29804352328877</v>
       </c>
       <c r="S6" t="n">
         <v>5.174993947522452</v>
@@ -31399,7 +31399,7 @@
         <v>1.122979796404518</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01832937643750575</v>
+        <v>0.01832937643750576</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>2.076688302211308</v>
       </c>
       <c r="I7" t="n">
-        <v>7.024217692960127</v>
+        <v>7.024217692960128</v>
       </c>
       <c r="J7" t="n">
         <v>16.51370646860668</v>
@@ -31454,19 +31454,19 @@
         <v>34.72613547480952</v>
       </c>
       <c r="M7" t="n">
-        <v>36.61384089471324</v>
+        <v>36.61384089471325</v>
       </c>
       <c r="N7" t="n">
         <v>35.74324559419524</v>
       </c>
       <c r="O7" t="n">
-        <v>33.01467251818139</v>
+        <v>33.0146725181814</v>
       </c>
       <c r="P7" t="n">
         <v>28.24975580022414</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.55866661724779</v>
+        <v>19.5586666172478</v>
       </c>
       <c r="R7" t="n">
         <v>10.50235208868826</v>
@@ -31475,7 +31475,7 @@
         <v>4.070563880714799</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9979994908377441</v>
+        <v>0.9979994908377442</v>
       </c>
       <c r="U7" t="n">
         <v>0.01274041903197122</v>
@@ -31609,7 +31609,7 @@
         <v>45.88352661808593</v>
       </c>
       <c r="L9" t="n">
-        <v>57.96224988694441</v>
+        <v>57.88759428791025</v>
       </c>
       <c r="M9" t="n">
         <v>59.41200981451278</v>
@@ -31618,7 +31618,7 @@
         <v>55.04111946984535</v>
       </c>
       <c r="O9" t="n">
-        <v>59.5245494770612</v>
+        <v>59.59920507609535</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.115056648537973</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H11" t="n">
-        <v>11.41957390183952</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I11" t="n">
-        <v>42.98822144276026</v>
+        <v>53.58647461229579</v>
       </c>
       <c r="J11" t="n">
-        <v>94.63903922384991</v>
+        <v>117.9712093800749</v>
       </c>
       <c r="K11" t="n">
-        <v>141.8393871564624</v>
+        <v>176.8082619794778</v>
       </c>
       <c r="L11" t="n">
-        <v>175.9643020641564</v>
+        <v>219.3462834415373</v>
       </c>
       <c r="M11" t="n">
-        <v>195.7941907375936</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N11" t="n">
-        <v>198.9623454402521</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O11" t="n">
-        <v>187.8745008913526</v>
+        <v>234.1928052482316</v>
       </c>
       <c r="P11" t="n">
-        <v>160.3465398805714</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.4135736548052</v>
+        <v>150.1001597896</v>
       </c>
       <c r="R11" t="n">
-        <v>70.04367719872353</v>
+        <v>87.31214281472343</v>
       </c>
       <c r="S11" t="n">
-        <v>25.40935337855909</v>
+        <v>31.67373815518294</v>
       </c>
       <c r="T11" t="n">
-        <v>4.881160478974981</v>
+        <v>6.084554636283631</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08920453188303785</v>
+        <v>0.1111968865568681</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5966079039795398</v>
+        <v>0.7436947430510356</v>
       </c>
       <c r="H12" t="n">
-        <v>5.761976335802398</v>
+        <v>7.182525544729739</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J12" t="n">
-        <v>56.36636341940029</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K12" t="n">
-        <v>96.33909298602946</v>
+        <v>120.0903919074999</v>
       </c>
       <c r="L12" t="n">
-        <v>129.5397995022242</v>
+        <v>161.4763519944803</v>
       </c>
       <c r="M12" t="n">
-        <v>151.1668360214825</v>
+        <v>188.4352864300803</v>
       </c>
       <c r="N12" t="n">
-        <v>155.167772360012</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O12" t="n">
-        <v>141.9481972244653</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P12" t="n">
-        <v>113.9259426467597</v>
+        <v>142.0130777322631</v>
       </c>
       <c r="Q12" t="n">
-        <v>76.1564756027216</v>
+        <v>94.931981586655</v>
       </c>
       <c r="R12" t="n">
-        <v>37.04202407339635</v>
+        <v>46.17431045013361</v>
       </c>
       <c r="S12" t="n">
-        <v>11.08173014628662</v>
+        <v>13.81380367026813</v>
       </c>
       <c r="T12" t="n">
-        <v>2.404748525250863</v>
+        <v>2.997611705543427</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03925051999865394</v>
+        <v>0.04892728572704183</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.500176025338038</v>
+        <v>0.6234886902484235</v>
       </c>
       <c r="H13" t="n">
-        <v>4.447019570732741</v>
+        <v>5.543381264208714</v>
       </c>
       <c r="I13" t="n">
-        <v>15.04165719834755</v>
+        <v>18.75000533947077</v>
       </c>
       <c r="J13" t="n">
-        <v>35.36244499139929</v>
+        <v>44.08065040056353</v>
       </c>
       <c r="K13" t="n">
-        <v>58.1113600347284</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L13" t="n">
-        <v>74.36253380343886</v>
+        <v>92.6957640029338</v>
       </c>
       <c r="M13" t="n">
-        <v>78.40486549912535</v>
+        <v>97.73468623594148</v>
       </c>
       <c r="N13" t="n">
-        <v>76.54057304104727</v>
+        <v>95.41077384501563</v>
       </c>
       <c r="O13" t="n">
-        <v>70.69760765414379</v>
+        <v>88.12729232711355</v>
       </c>
       <c r="P13" t="n">
-        <v>60.49401673724777</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.88292153989698</v>
+        <v>52.20867568980208</v>
       </c>
       <c r="R13" t="n">
-        <v>22.4897329211085</v>
+        <v>28.03431874517001</v>
       </c>
       <c r="S13" t="n">
-        <v>8.716704005209259</v>
+        <v>10.86570744732934</v>
       </c>
       <c r="T13" t="n">
-        <v>2.137115744626162</v>
+        <v>2.663997131061445</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0272823286548021</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.389961081960851</v>
+        <v>1.389961081960852</v>
       </c>
       <c r="H14" t="n">
-        <v>14.23493893063157</v>
+        <v>14.23493893063158</v>
       </c>
       <c r="I14" t="n">
-        <v>53.58647461229577</v>
+        <v>53.5864746122958</v>
       </c>
       <c r="J14" t="n">
-        <v>117.9712093800749</v>
+        <v>117.971209380075</v>
       </c>
       <c r="K14" t="n">
-        <v>176.8082619794778</v>
+        <v>176.8082619794779</v>
       </c>
       <c r="L14" t="n">
         <v>219.3462834415373</v>
       </c>
       <c r="M14" t="n">
-        <v>244.0650038328585</v>
+        <v>244.0650038328586</v>
       </c>
       <c r="N14" t="n">
-        <v>248.0142307569798</v>
+        <v>248.0142307569799</v>
       </c>
       <c r="O14" t="n">
-        <v>234.1928052482316</v>
+        <v>234.1928052482317</v>
       </c>
       <c r="P14" t="n">
-        <v>199.878141037323</v>
+        <v>199.8781410373231</v>
       </c>
       <c r="Q14" t="n">
         <v>150.1001597896</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472342</v>
+        <v>87.31214281472344</v>
       </c>
       <c r="S14" t="n">
-        <v>31.67373815518294</v>
+        <v>31.67373815518295</v>
       </c>
       <c r="T14" t="n">
-        <v>6.08455463628363</v>
+        <v>6.084554636283633</v>
       </c>
       <c r="U14" t="n">
         <v>0.1111968865568681</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7436947430510354</v>
+        <v>0.7436947430510357</v>
       </c>
       <c r="H15" t="n">
-        <v>7.182525544729738</v>
+        <v>7.18252554472974</v>
       </c>
       <c r="I15" t="n">
-        <v>25.60527953048521</v>
+        <v>25.60527953048522</v>
       </c>
       <c r="J15" t="n">
-        <v>70.26284412308051</v>
+        <v>70.26284412308053</v>
       </c>
       <c r="K15" t="n">
         <v>120.0903919074999</v>
       </c>
       <c r="L15" t="n">
-        <v>161.4763519944803</v>
+        <v>161.4763519944804</v>
       </c>
       <c r="M15" t="n">
-        <v>188.4352864300803</v>
+        <v>188.4352864300804</v>
       </c>
       <c r="N15" t="n">
-        <v>193.4226077551901</v>
+        <v>193.4226077551902</v>
       </c>
       <c r="O15" t="n">
-        <v>176.9438979223224</v>
+        <v>176.9438979223225</v>
       </c>
       <c r="P15" t="n">
         <v>142.0130777322631</v>
       </c>
       <c r="Q15" t="n">
-        <v>94.93198158665498</v>
+        <v>94.93198158665501</v>
       </c>
       <c r="R15" t="n">
-        <v>46.1743104501336</v>
+        <v>46.17431045013362</v>
       </c>
       <c r="S15" t="n">
         <v>13.81380367026813</v>
       </c>
       <c r="T15" t="n">
-        <v>2.997611705543427</v>
+        <v>2.997611705543428</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04892728572704182</v>
+        <v>0.04892728572704184</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6234886902484233</v>
+        <v>0.6234886902484236</v>
       </c>
       <c r="H16" t="n">
-        <v>5.543381264208713</v>
+        <v>5.543381264208715</v>
       </c>
       <c r="I16" t="n">
-        <v>18.75000533947077</v>
+        <v>18.75000533947078</v>
       </c>
       <c r="J16" t="n">
-        <v>44.08065040056353</v>
+        <v>44.08065040056354</v>
       </c>
       <c r="K16" t="n">
-        <v>72.43804964886226</v>
+        <v>72.43804964886228</v>
       </c>
       <c r="L16" t="n">
-        <v>92.69576400293379</v>
+        <v>92.69576400293381</v>
       </c>
       <c r="M16" t="n">
-        <v>97.73468623594147</v>
+        <v>97.73468623594151</v>
       </c>
       <c r="N16" t="n">
-        <v>95.41077384501561</v>
+        <v>95.41077384501564</v>
       </c>
       <c r="O16" t="n">
-        <v>88.12729232711354</v>
+        <v>88.12729232711357</v>
       </c>
       <c r="P16" t="n">
-        <v>75.40812304604565</v>
+        <v>75.40812304604566</v>
       </c>
       <c r="Q16" t="n">
-        <v>52.20867568980207</v>
+        <v>52.20867568980209</v>
       </c>
       <c r="R16" t="n">
-        <v>28.03431874517001</v>
+        <v>28.03431874517002</v>
       </c>
       <c r="S16" t="n">
         <v>10.86570744732934</v>
@@ -32189,7 +32189,7 @@
         <v>2.663997131061445</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0340084740135504</v>
+        <v>0.03400847401355041</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.696012674636079</v>
+        <v>1.563279174787061</v>
       </c>
       <c r="H17" t="n">
-        <v>17.36928980411675</v>
+        <v>16.00993284878799</v>
       </c>
       <c r="I17" t="n">
-        <v>65.38552863890749</v>
+        <v>60.26832038597823</v>
       </c>
       <c r="J17" t="n">
-        <v>143.946955743894</v>
+        <v>132.6813658610834</v>
       </c>
       <c r="K17" t="n">
-        <v>215.7391722612393</v>
+        <v>198.8549733298198</v>
       </c>
       <c r="L17" t="n">
-        <v>267.6435201526332</v>
+        <v>246.6971783752093</v>
       </c>
       <c r="M17" t="n">
-        <v>297.8049855551926</v>
+        <v>274.4981443998287</v>
       </c>
       <c r="N17" t="n">
-        <v>302.6237815670024</v>
+        <v>278.9398113551925</v>
       </c>
       <c r="O17" t="n">
-        <v>285.7590555335898</v>
+        <v>263.3949540609036</v>
       </c>
       <c r="P17" t="n">
-        <v>243.8887426285116</v>
+        <v>224.801499433348</v>
       </c>
       <c r="Q17" t="n">
-        <v>183.150288718107</v>
+        <v>168.8165639862864</v>
       </c>
       <c r="R17" t="n">
-        <v>106.5371561731087</v>
+        <v>98.19933546321781</v>
       </c>
       <c r="S17" t="n">
-        <v>38.64788882326969</v>
+        <v>35.62322419546019</v>
       </c>
       <c r="T17" t="n">
-        <v>7.424295483219439</v>
+        <v>6.843254587630363</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1356810139708863</v>
+        <v>0.1250623339829648</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9074467815281632</v>
+        <v>0.8364280980947947</v>
       </c>
       <c r="H18" t="n">
-        <v>8.764025495285155</v>
+        <v>8.078134526336571</v>
       </c>
       <c r="I18" t="n">
-        <v>31.24323348682492</v>
+        <v>28.79807267563219</v>
       </c>
       <c r="J18" t="n">
-        <v>85.7338207056937</v>
+        <v>79.02411254850865</v>
       </c>
       <c r="K18" t="n">
-        <v>146.5327550680806</v>
+        <v>135.0647951208599</v>
       </c>
       <c r="L18" t="n">
-        <v>197.0313724541742</v>
+        <v>181.6112850709773</v>
       </c>
       <c r="M18" t="n">
-        <v>229.9263182845701</v>
+        <v>211.9318036269135</v>
       </c>
       <c r="N18" t="n">
-        <v>236.0117837624498</v>
+        <v>217.5410078461545</v>
       </c>
       <c r="O18" t="n">
-        <v>215.9046734980626</v>
+        <v>199.007522093633</v>
       </c>
       <c r="P18" t="n">
-        <v>173.2825349744437</v>
+        <v>159.7210812932069</v>
       </c>
       <c r="Q18" t="n">
-        <v>115.8347856561213</v>
+        <v>106.7693130129426</v>
       </c>
       <c r="R18" t="n">
-        <v>56.34130104961702</v>
+        <v>51.93191296767507</v>
       </c>
       <c r="S18" t="n">
-        <v>16.85542596391126</v>
+        <v>15.53628506768181</v>
       </c>
       <c r="T18" t="n">
-        <v>3.657647334317463</v>
+        <v>3.371392202408404</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05970044615316865</v>
+        <v>0.05502816434834178</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7607728985201596</v>
+        <v>0.7012332200018194</v>
       </c>
       <c r="H19" t="n">
-        <v>6.763962679570152</v>
+        <v>6.234600810561635</v>
       </c>
       <c r="I19" t="n">
-        <v>22.87851589367899</v>
+        <v>21.08799537969108</v>
       </c>
       <c r="J19" t="n">
-        <v>53.78664392537529</v>
+        <v>49.57718865412863</v>
       </c>
       <c r="K19" t="n">
-        <v>88.38797857352398</v>
+        <v>81.47055046930227</v>
       </c>
       <c r="L19" t="n">
-        <v>113.1061816581699</v>
+        <v>104.2542552719069</v>
       </c>
       <c r="M19" t="n">
-        <v>119.2546099016647</v>
+        <v>109.9214946590125</v>
       </c>
       <c r="N19" t="n">
-        <v>116.4190018253623</v>
+        <v>107.3078072026421</v>
       </c>
       <c r="O19" t="n">
-        <v>107.531791147195</v>
+        <v>99.11612822352993</v>
       </c>
       <c r="P19" t="n">
-        <v>92.01202401738364</v>
+        <v>84.81097053549274</v>
       </c>
       <c r="Q19" t="n">
-        <v>63.70435607517447</v>
+        <v>58.71871990397054</v>
       </c>
       <c r="R19" t="n">
-        <v>34.20711596437008</v>
+        <v>31.52999551026362</v>
       </c>
       <c r="S19" t="n">
-        <v>13.25819678602859</v>
+        <v>12.22058257039534</v>
       </c>
       <c r="T19" t="n">
-        <v>3.250575111858863</v>
+        <v>2.996178303644137</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04149670355564512</v>
+        <v>0.03824908472737201</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.696012674636079</v>
+        <v>1.563279174787061</v>
       </c>
       <c r="H20" t="n">
-        <v>17.36928980411675</v>
+        <v>16.00993284878799</v>
       </c>
       <c r="I20" t="n">
-        <v>65.38552863890752</v>
+        <v>60.26832038597823</v>
       </c>
       <c r="J20" t="n">
-        <v>143.9469557438941</v>
+        <v>132.6813658610834</v>
       </c>
       <c r="K20" t="n">
-        <v>215.7391722612394</v>
+        <v>198.8549733298198</v>
       </c>
       <c r="L20" t="n">
-        <v>267.6435201526333</v>
+        <v>246.6971783752093</v>
       </c>
       <c r="M20" t="n">
-        <v>297.8049855551927</v>
+        <v>274.4981443998287</v>
       </c>
       <c r="N20" t="n">
-        <v>302.6237815670025</v>
+        <v>278.9398113551925</v>
       </c>
       <c r="O20" t="n">
-        <v>285.75905553359</v>
+        <v>263.3949540609036</v>
       </c>
       <c r="P20" t="n">
-        <v>243.8887426285117</v>
+        <v>224.801499433348</v>
       </c>
       <c r="Q20" t="n">
-        <v>183.150288718107</v>
+        <v>168.8165639862864</v>
       </c>
       <c r="R20" t="n">
-        <v>106.5371561731087</v>
+        <v>98.19933546321781</v>
       </c>
       <c r="S20" t="n">
-        <v>38.6478888232697</v>
+        <v>35.62322419546019</v>
       </c>
       <c r="T20" t="n">
-        <v>7.424295483219441</v>
+        <v>6.843254587630363</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1356810139708863</v>
+        <v>0.1250623339829648</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9074467815281634</v>
+        <v>0.8364280980947947</v>
       </c>
       <c r="H21" t="n">
-        <v>8.764025495285157</v>
+        <v>8.078134526336571</v>
       </c>
       <c r="I21" t="n">
-        <v>31.24323348682493</v>
+        <v>28.79807267563219</v>
       </c>
       <c r="J21" t="n">
-        <v>85.73382070569373</v>
+        <v>79.02411254850865</v>
       </c>
       <c r="K21" t="n">
-        <v>146.5327550680807</v>
+        <v>135.0647951208599</v>
       </c>
       <c r="L21" t="n">
-        <v>197.0313724541743</v>
+        <v>181.6112850709773</v>
       </c>
       <c r="M21" t="n">
-        <v>229.9263182845701</v>
+        <v>211.9318036269135</v>
       </c>
       <c r="N21" t="n">
-        <v>236.0117837624498</v>
+        <v>217.5410078461545</v>
       </c>
       <c r="O21" t="n">
-        <v>215.9046734980626</v>
+        <v>199.007522093633</v>
       </c>
       <c r="P21" t="n">
-        <v>173.2825349744438</v>
+        <v>159.7210812932069</v>
       </c>
       <c r="Q21" t="n">
-        <v>115.8347856561214</v>
+        <v>106.7693130129426</v>
       </c>
       <c r="R21" t="n">
-        <v>56.34130104961704</v>
+        <v>51.93191296767507</v>
       </c>
       <c r="S21" t="n">
-        <v>16.85542596391127</v>
+        <v>15.53628506768181</v>
       </c>
       <c r="T21" t="n">
-        <v>3.657647334317464</v>
+        <v>3.371392202408404</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05970044615316866</v>
+        <v>0.05502816434834178</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7607728985201598</v>
+        <v>0.7012332200018194</v>
       </c>
       <c r="H22" t="n">
-        <v>6.763962679570153</v>
+        <v>6.234600810561635</v>
       </c>
       <c r="I22" t="n">
-        <v>22.878515893679</v>
+        <v>21.08799537969108</v>
       </c>
       <c r="J22" t="n">
-        <v>53.7866439253753</v>
+        <v>49.57718865412863</v>
       </c>
       <c r="K22" t="n">
-        <v>88.38797857352401</v>
+        <v>81.47055046930227</v>
       </c>
       <c r="L22" t="n">
-        <v>113.10618165817</v>
+        <v>104.2542552719069</v>
       </c>
       <c r="M22" t="n">
-        <v>119.2546099016647</v>
+        <v>109.9214946590125</v>
       </c>
       <c r="N22" t="n">
-        <v>116.4190018253624</v>
+        <v>107.3078072026421</v>
       </c>
       <c r="O22" t="n">
-        <v>107.531791147195</v>
+        <v>99.11612822352993</v>
       </c>
       <c r="P22" t="n">
-        <v>92.01202401738367</v>
+        <v>84.81097053549274</v>
       </c>
       <c r="Q22" t="n">
-        <v>63.70435607517448</v>
+        <v>58.71871990397054</v>
       </c>
       <c r="R22" t="n">
-        <v>34.20711596437009</v>
+        <v>31.52999551026362</v>
       </c>
       <c r="S22" t="n">
-        <v>13.2581967860286</v>
+        <v>12.22058257039534</v>
       </c>
       <c r="T22" t="n">
-        <v>3.250575111858864</v>
+        <v>2.996178303644137</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04149670355564513</v>
+        <v>0.03824908472737201</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.326426748961198</v>
+        <v>2.326426748961199</v>
       </c>
       <c r="H44" t="n">
         <v>23.82551794279888</v>
       </c>
       <c r="I44" t="n">
-        <v>89.68956723932668</v>
+        <v>89.68956723932671</v>
       </c>
       <c r="J44" t="n">
         <v>197.4525622846457</v>
@@ -34374,16 +34374,16 @@
         <v>295.9302065681733</v>
       </c>
       <c r="L44" t="n">
-        <v>367.1275891866946</v>
+        <v>367.1275891866947</v>
       </c>
       <c r="M44" t="n">
-        <v>408.5001808835333</v>
+        <v>408.5001808835334</v>
       </c>
       <c r="N44" t="n">
         <v>415.1101408840194</v>
       </c>
       <c r="O44" t="n">
-        <v>391.9767348990364</v>
+        <v>391.9767348990365</v>
       </c>
       <c r="P44" t="n">
         <v>334.5430745340568</v>
@@ -34395,7 +34395,7 @@
         <v>146.137404269434</v>
       </c>
       <c r="S44" t="n">
-        <v>53.01344954195336</v>
+        <v>53.01344954195337</v>
       </c>
       <c r="T44" t="n">
         <v>10.18393309357765</v>
@@ -34441,10 +34441,10 @@
         <v>1.244748047805042</v>
       </c>
       <c r="H45" t="n">
-        <v>12.0216456195908</v>
+        <v>12.02164561959081</v>
       </c>
       <c r="I45" t="n">
-        <v>42.85645690907711</v>
+        <v>42.85645690907712</v>
       </c>
       <c r="J45" t="n">
         <v>117.601393411265</v>
@@ -34453,34 +34453,34 @@
         <v>200.9995126142028</v>
       </c>
       <c r="L45" t="n">
-        <v>270.2686495903009</v>
+        <v>270.268649590301</v>
       </c>
       <c r="M45" t="n">
         <v>315.3907663232337</v>
       </c>
       <c r="N45" t="n">
-        <v>323.7382214332947</v>
+        <v>323.7382214332948</v>
       </c>
       <c r="O45" t="n">
         <v>296.1572252161409</v>
       </c>
       <c r="P45" t="n">
-        <v>237.69228291814</v>
+        <v>237.6922829181401</v>
       </c>
       <c r="Q45" t="n">
         <v>158.8909964180612</v>
       </c>
       <c r="R45" t="n">
-        <v>77.28356738915869</v>
+        <v>77.28356738915872</v>
       </c>
       <c r="S45" t="n">
-        <v>23.12064904585241</v>
+        <v>23.12064904585242</v>
       </c>
       <c r="T45" t="n">
-        <v>5.017208140056287</v>
+        <v>5.017208140056288</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08189131893454228</v>
+        <v>0.0818913189345423</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0435549494828</v>
+        <v>1.043554949482801</v>
       </c>
       <c r="H46" t="n">
-        <v>9.278152187219815</v>
+        <v>9.278152187219817</v>
       </c>
       <c r="I46" t="n">
         <v>31.38254338990096</v>
       </c>
       <c r="J46" t="n">
-        <v>73.779334928434</v>
+        <v>73.77933492843401</v>
       </c>
       <c r="K46" t="n">
         <v>121.2421114035472</v>
@@ -34535,10 +34535,10 @@
         <v>155.1481603985611</v>
       </c>
       <c r="M46" t="n">
-        <v>163.5819817630175</v>
+        <v>163.5819817630176</v>
       </c>
       <c r="N46" t="n">
-        <v>159.6923678603999</v>
+        <v>159.6923678604</v>
       </c>
       <c r="O46" t="n">
         <v>147.5017486778054</v>
@@ -34547,19 +34547,19 @@
         <v>126.2132277083561</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.38349672441888</v>
+        <v>87.38349672441889</v>
       </c>
       <c r="R46" t="n">
-        <v>46.92202527401754</v>
+        <v>46.92202527401756</v>
       </c>
       <c r="S46" t="n">
-        <v>18.18631671053207</v>
+        <v>18.18631671053208</v>
       </c>
       <c r="T46" t="n">
-        <v>4.458825693244692</v>
+        <v>4.458825693244693</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05692117906269827</v>
+        <v>0.05692117906269829</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>1.847726076095356</v>
       </c>
       <c r="K8" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1.773070477061199</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35193,10 +35193,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.7730704770612</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,7 +35257,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.847726076095356</v>
+        <v>1.7730704770612</v>
       </c>
       <c r="M9" t="n">
         <v>1.847726076095356</v>
@@ -35266,7 +35266,7 @@
         <v>1.847726076095356</v>
       </c>
       <c r="O9" t="n">
-        <v>1.7730704770612</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>1.847726076095356</v>
       </c>
       <c r="K10" t="n">
+        <v>1.7730704770612</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.847726076095356</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.773070477061199</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>1.847726076095356</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.31544789054196</v>
+        <v>44.64761804676699</v>
       </c>
       <c r="K11" t="n">
-        <v>52.70299748324523</v>
+        <v>87.67187230626071</v>
       </c>
       <c r="L11" t="n">
-        <v>80.47890400131156</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M11" t="n">
-        <v>102.5039662805481</v>
+        <v>150.7747793758131</v>
       </c>
       <c r="N11" t="n">
-        <v>106.0500546836328</v>
+        <v>155.1019400003605</v>
       </c>
       <c r="O11" t="n">
-        <v>94.68472526556947</v>
+        <v>141.0030296224485</v>
       </c>
       <c r="P11" t="n">
-        <v>66.69717659968723</v>
+        <v>106.2287777564389</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.37976925565312</v>
+        <v>60.06635539044797</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>4.997124619400282</v>
+        <v>183.4433787840125</v>
       </c>
       <c r="K12" t="n">
-        <v>40.51331020141406</v>
+        <v>64.26460912288451</v>
       </c>
       <c r="L12" t="n">
-        <v>73.42527569137513</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M12" t="n">
-        <v>93.60255228306505</v>
+        <v>130.8710026916629</v>
       </c>
       <c r="N12" t="n">
-        <v>101.974378966262</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O12" t="n">
-        <v>84.19671822446531</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P12" t="n">
-        <v>59.66630764395592</v>
+        <v>87.75344272945935</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.4373738302517</v>
+        <v>38.23936308181628</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.58724237039981</v>
+        <v>58.30544777956406</v>
       </c>
       <c r="K13" t="n">
-        <v>5.860990475661573</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="L13" t="n">
-        <v>140.1185997565274</v>
+        <v>38.06747010903229</v>
       </c>
       <c r="M13" t="n">
-        <v>140.1185997565274</v>
+        <v>41.46974373716144</v>
       </c>
       <c r="N13" t="n">
-        <v>91.71787378924044</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="O13" t="n">
-        <v>14.62270958114747</v>
+        <v>32.05239425411722</v>
       </c>
       <c r="P13" t="n">
-        <v>4.714175097342988</v>
+        <v>141.9484822659146</v>
       </c>
       <c r="Q13" t="n">
-        <v>108.0728506333423</v>
+        <v>118.3986047832474</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>44.64761804676698</v>
+        <v>44.64761804676702</v>
       </c>
       <c r="K14" t="n">
-        <v>87.67187230626068</v>
+        <v>87.67187230626074</v>
       </c>
       <c r="L14" t="n">
-        <v>123.8608853786924</v>
+        <v>123.8608853786925</v>
       </c>
       <c r="M14" t="n">
-        <v>150.7747793758131</v>
+        <v>150.7747793758132</v>
       </c>
       <c r="N14" t="n">
-        <v>155.1019400003605</v>
+        <v>155.1019400003606</v>
       </c>
       <c r="O14" t="n">
         <v>141.0030296224485</v>
@@ -35667,7 +35667,7 @@
         <v>106.2287777564389</v>
       </c>
       <c r="Q14" t="n">
-        <v>60.06635539044797</v>
+        <v>60.066355390448</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>183.4433787840125</v>
+        <v>107.4109679675857</v>
       </c>
       <c r="K15" t="n">
-        <v>64.26460912288448</v>
+        <v>64.26460912288454</v>
       </c>
       <c r="L15" t="n">
-        <v>105.3618281836312</v>
+        <v>105.3618281836313</v>
       </c>
       <c r="M15" t="n">
         <v>130.8710026916629</v>
       </c>
       <c r="N15" t="n">
-        <v>140.2292143614401</v>
+        <v>140.2292143614402</v>
       </c>
       <c r="O15" t="n">
-        <v>119.1924189223224</v>
+        <v>119.1924189223225</v>
       </c>
       <c r="P15" t="n">
-        <v>87.75344272945932</v>
+        <v>87.75344272945938</v>
       </c>
       <c r="Q15" t="n">
-        <v>38.23936308181626</v>
+        <v>38.23936308181629</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>76.03241081642645</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.30544777956406</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>139.7200976664799</v>
+        <v>219.5565574740962</v>
       </c>
       <c r="L16" t="n">
-        <v>38.06747010903228</v>
+        <v>38.06747010903231</v>
       </c>
       <c r="M16" t="n">
+        <v>128.9199870093123</v>
+      </c>
+      <c r="N16" t="n">
+        <v>43.6981283365962</v>
+      </c>
+      <c r="O16" t="n">
         <v>219.5565574740962</v>
-      </c>
-      <c r="N16" t="n">
-        <v>43.69812833659617</v>
-      </c>
-      <c r="O16" t="n">
-        <v>32.05239425411721</v>
       </c>
       <c r="P16" t="n">
         <v>219.5565574740962</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.3986047832474</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>70.62336441058608</v>
+        <v>59.35777452777549</v>
       </c>
       <c r="K17" t="n">
-        <v>126.6027825880222</v>
+        <v>109.7185836566026</v>
       </c>
       <c r="L17" t="n">
-        <v>172.1581220897884</v>
+        <v>151.2117803123645</v>
       </c>
       <c r="M17" t="n">
-        <v>204.5147610981472</v>
+        <v>181.2079199427833</v>
       </c>
       <c r="N17" t="n">
-        <v>209.7114908103831</v>
+        <v>186.0275205985732</v>
       </c>
       <c r="O17" t="n">
-        <v>192.5692799078067</v>
+        <v>170.2051784351205</v>
       </c>
       <c r="P17" t="n">
-        <v>150.2393793476275</v>
+        <v>131.1521361524639</v>
       </c>
       <c r="Q17" t="n">
-        <v>93.11648431895495</v>
+        <v>78.78275958713431</v>
       </c>
       <c r="R17" t="n">
-        <v>19.22501335838517</v>
+        <v>10.88719264849429</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.70212802086269</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>34.36458190569369</v>
+        <v>27.65487374850864</v>
       </c>
       <c r="K18" t="n">
-        <v>90.70697228346523</v>
+        <v>79.23901233624449</v>
       </c>
       <c r="L18" t="n">
-        <v>140.9168486433252</v>
+        <v>125.4967612601282</v>
       </c>
       <c r="M18" t="n">
-        <v>172.3620345461526</v>
+        <v>154.3675198884961</v>
       </c>
       <c r="N18" t="n">
-        <v>182.8183903686998</v>
+        <v>164.3476144524045</v>
       </c>
       <c r="O18" t="n">
-        <v>158.1531944980626</v>
+        <v>141.256043093633</v>
       </c>
       <c r="P18" t="n">
-        <v>135.8862544107855</v>
+        <v>105.4614462904032</v>
       </c>
       <c r="Q18" t="n">
-        <v>312.8502732526542</v>
+        <v>198.9375614575264</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>81.79001333396789</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.353498242419867</v>
+        <v>63.80198603312915</v>
       </c>
       <c r="K19" t="n">
-        <v>36.13760901445715</v>
+        <v>237.5840128149972</v>
       </c>
       <c r="L19" t="n">
-        <v>312.8502732526542</v>
+        <v>272.389116684362</v>
       </c>
       <c r="M19" t="n">
-        <v>223.1417381221341</v>
+        <v>133.7502217997056</v>
       </c>
       <c r="N19" t="n">
-        <v>312.8502732526542</v>
+        <v>55.59516169422268</v>
       </c>
       <c r="O19" t="n">
-        <v>312.8502732526542</v>
+        <v>43.0412301505336</v>
       </c>
       <c r="P19" t="n">
-        <v>36.23218237747886</v>
+        <v>272.389116684362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3448304152489</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>70.62336441058613</v>
+        <v>59.35777452777549</v>
       </c>
       <c r="K20" t="n">
-        <v>126.6027825880222</v>
+        <v>109.7185836566026</v>
       </c>
       <c r="L20" t="n">
-        <v>172.1581220897885</v>
+        <v>151.2117803123645</v>
       </c>
       <c r="M20" t="n">
-        <v>204.5147610981472</v>
+        <v>181.2079199427833</v>
       </c>
       <c r="N20" t="n">
-        <v>209.7114908103832</v>
+        <v>186.0275205985732</v>
       </c>
       <c r="O20" t="n">
-        <v>192.5692799078068</v>
+        <v>170.2051784351205</v>
       </c>
       <c r="P20" t="n">
-        <v>150.2393793476275</v>
+        <v>131.1521361524639</v>
       </c>
       <c r="Q20" t="n">
-        <v>93.116484318955</v>
+        <v>78.78275958713431</v>
       </c>
       <c r="R20" t="n">
-        <v>19.2250133583852</v>
+        <v>10.88719264849429</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>34.36458190569372</v>
+        <v>258.305754031899</v>
       </c>
       <c r="K21" t="n">
-        <v>312.8502732526542</v>
+        <v>79.23901233624449</v>
       </c>
       <c r="L21" t="n">
-        <v>200.047136235516</v>
+        <v>125.4967612601282</v>
       </c>
       <c r="M21" t="n">
-        <v>172.3620345461527</v>
+        <v>154.3675198884961</v>
       </c>
       <c r="N21" t="n">
-        <v>182.8183903686998</v>
+        <v>164.3476144524045</v>
       </c>
       <c r="O21" t="n">
-        <v>158.1531944980626</v>
+        <v>141.256043093633</v>
       </c>
       <c r="P21" t="n">
-        <v>119.02289997164</v>
+        <v>105.4614462904032</v>
       </c>
       <c r="Q21" t="n">
-        <v>59.14216715128264</v>
+        <v>50.07669450810384</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>68.01144130437584</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>244.5014409192189</v>
+        <v>29.22018091023544</v>
       </c>
       <c r="L22" t="n">
-        <v>312.8502732526542</v>
+        <v>272.389116684362</v>
       </c>
       <c r="M22" t="n">
-        <v>312.8502732526542</v>
+        <v>176.5681532037681</v>
       </c>
       <c r="N22" t="n">
-        <v>64.70635631694292</v>
+        <v>55.59516169422268</v>
       </c>
       <c r="O22" t="n">
-        <v>197.2638800911278</v>
+        <v>272.389116684362</v>
       </c>
       <c r="P22" t="n">
-        <v>36.23218237747889</v>
+        <v>272.389116684362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.344830415248914</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>22.31535144311488</v>
       </c>
       <c r="J24" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K24" t="n">
-        <v>145.1737298295874</v>
+        <v>295.4930686333068</v>
       </c>
       <c r="L24" t="n">
         <v>214.1541257794519</v>
@@ -36454,13 +36454,13 @@
         <v>238.4057462161409</v>
       </c>
       <c r="P24" t="n">
-        <v>264.857903262595</v>
+        <v>183.4326479153363</v>
       </c>
       <c r="Q24" t="n">
-        <v>506.0804618258591</v>
+        <v>102.1983779132225</v>
       </c>
       <c r="R24" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>22.34618924547858</v>
+        <v>38.00293370880826</v>
       </c>
       <c r="K25" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L25" t="n">
-        <v>171.3455906522356</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M25" t="n">
         <v>455.7678973594753</v>
@@ -36533,7 +36533,7 @@
         <v>409.6841833510116</v>
       </c>
       <c r="P25" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q25" t="n">
         <v>153.5734258178642</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>22.31535144311488</v>
+        <v>2.54989300907711</v>
       </c>
       <c r="J27" t="n">
         <v>312.361855595743</v>
       </c>
       <c r="K27" t="n">
-        <v>295.4930686333068</v>
+        <v>145.1737298295874</v>
       </c>
       <c r="L27" t="n">
         <v>214.1541257794519</v>
@@ -36694,7 +36694,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q27" t="n">
-        <v>102.1983779132225</v>
+        <v>272.2831751509793</v>
       </c>
       <c r="R27" t="n">
         <v>107.1416677554515</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>22.34618924547858</v>
+        <v>88.00413230743453</v>
       </c>
       <c r="K28" t="n">
-        <v>277.3555737492421</v>
+        <v>92.92219217911871</v>
       </c>
       <c r="L28" t="n">
         <v>417.6704839137738</v>
@@ -36764,7 +36764,7 @@
         <v>455.7678973594753</v>
       </c>
       <c r="N28" t="n">
-        <v>197.0430123708317</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O28" t="n">
         <v>409.6841833510116</v>
@@ -36773,7 +36773,7 @@
         <v>70.43338606845134</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.5734258178642</v>
+        <v>26.02397106449331</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>2.54989300907711</v>
       </c>
       <c r="J30" t="n">
-        <v>312.361855595743</v>
+        <v>66.23215461126497</v>
       </c>
       <c r="K30" t="n">
-        <v>145.1737298295874</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="L30" t="n">
         <v>214.1541257794519</v>
@@ -36931,7 +36931,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q30" t="n">
-        <v>361.1414746226774</v>
+        <v>246.3644436108842</v>
       </c>
       <c r="R30" t="n">
         <v>18.28336828375328</v>
@@ -36992,22 +36992,22 @@
         <v>22.34618924547858</v>
       </c>
       <c r="K31" t="n">
-        <v>277.3555737492421</v>
+        <v>243.4981817473045</v>
       </c>
       <c r="L31" t="n">
         <v>417.6704839137738</v>
       </c>
       <c r="M31" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642375</v>
       </c>
       <c r="N31" t="n">
-        <v>324.592467124202</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O31" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P31" t="n">
-        <v>70.43338606845134</v>
+        <v>333.9661976574595</v>
       </c>
       <c r="Q31" t="n">
         <v>26.02397106449331</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.54989300907711</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J33" t="n">
         <v>312.361855595743</v>
@@ -37168,10 +37168,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q33" t="n">
-        <v>272.2831751509797</v>
+        <v>341.3760161886401</v>
       </c>
       <c r="R33" t="n">
-        <v>107.1416677554515</v>
+        <v>18.28336828375328</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>88.00413230743453</v>
+        <v>38.00293370880826</v>
       </c>
       <c r="K34" t="n">
-        <v>277.3555737492421</v>
+        <v>68.99174184448033</v>
       </c>
       <c r="L34" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M34" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N34" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O34" t="n">
-        <v>169.556718718899</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P34" t="n">
         <v>333.9661976574595</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14.88230731867566</v>
+        <v>22.31535144311488</v>
       </c>
       <c r="J36" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K36" t="n">
         <v>145.1737298295874</v>
@@ -37405,7 +37405,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q36" t="n">
-        <v>506.0804618258591</v>
+        <v>252.5177167169415</v>
       </c>
       <c r="R36" t="n">
         <v>107.1416677554515</v>
@@ -37469,19 +37469,19 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L37" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M37" t="n">
-        <v>107.3170392642375</v>
+        <v>455.7678973594753</v>
       </c>
       <c r="N37" t="n">
-        <v>216.3031158151057</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O37" t="n">
         <v>409.6841833510116</v>
       </c>
       <c r="P37" t="n">
-        <v>333.9661976574595</v>
+        <v>75.60116715407152</v>
       </c>
       <c r="Q37" t="n">
         <v>153.5734258178642</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>22.31535144311488</v>
+        <v>2.54989300907711</v>
       </c>
       <c r="J39" t="n">
-        <v>66.23215461126497</v>
+        <v>312.361855595743</v>
       </c>
       <c r="K39" t="n">
         <v>145.1737298295874</v>
@@ -37642,7 +37642,7 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q39" t="n">
-        <v>498.6474177014201</v>
+        <v>272.2831751509797</v>
       </c>
       <c r="R39" t="n">
         <v>107.1416677554515</v>
@@ -37706,19 +37706,19 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L40" t="n">
-        <v>417.6704839137738</v>
+        <v>105.6876475902797</v>
       </c>
       <c r="M40" t="n">
         <v>455.7678973594753</v>
       </c>
       <c r="N40" t="n">
-        <v>107.9797223519805</v>
+        <v>443.3679056323699</v>
       </c>
       <c r="O40" t="n">
-        <v>169.556718718899</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P40" t="n">
-        <v>333.9661976574595</v>
+        <v>70.43338606845134</v>
       </c>
       <c r="Q40" t="n">
         <v>153.5734258178642</v>
@@ -37879,10 +37879,10 @@
         <v>183.4326479153363</v>
       </c>
       <c r="Q42" t="n">
-        <v>341.3760161886401</v>
+        <v>252.517716716942</v>
       </c>
       <c r="R42" t="n">
-        <v>18.28336828375328</v>
+        <v>107.1416677554515</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37946,13 +37946,13 @@
         <v>417.6704839137738</v>
       </c>
       <c r="M43" t="n">
-        <v>455.7678973594753</v>
+        <v>107.3170392642375</v>
       </c>
       <c r="N43" t="n">
-        <v>107.9797223519805</v>
+        <v>216.3031158151057</v>
       </c>
       <c r="O43" t="n">
-        <v>169.556718718899</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P43" t="n">
         <v>333.9661976574595</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.201322183229109</v>
+        <v>4.201322183229138</v>
       </c>
       <c r="J44" t="n">
-        <v>124.1289709513377</v>
+        <v>124.1289709513378</v>
       </c>
       <c r="K44" t="n">
-        <v>206.7938168949561</v>
+        <v>206.7938168949562</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6421911238498</v>
+        <v>271.6421911238499</v>
       </c>
       <c r="M44" t="n">
-        <v>315.2099564264878</v>
+        <v>315.209956426488</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1978501274</v>
+        <v>322.1978501274001</v>
       </c>
       <c r="O44" t="n">
-        <v>298.7869592732533</v>
+        <v>298.7869592732534</v>
       </c>
       <c r="P44" t="n">
-        <v>240.8937112531726</v>
+        <v>240.8937112531727</v>
       </c>
       <c r="Q44" t="n">
-        <v>161.1941121877317</v>
+        <v>161.1941121877318</v>
       </c>
       <c r="R44" t="n">
-        <v>58.82526145471049</v>
+        <v>58.82526145471051</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>22.31535144311488</v>
+        <v>2.549893009077124</v>
       </c>
       <c r="J45" t="n">
-        <v>312.361855595743</v>
+        <v>167.4228683925616</v>
       </c>
       <c r="K45" t="n">
         <v>145.1737298295874</v>
@@ -38104,22 +38104,22 @@
         <v>214.1541257794519</v>
       </c>
       <c r="M45" t="n">
-        <v>257.8264825848162</v>
+        <v>257.8264825848163</v>
       </c>
       <c r="N45" t="n">
-        <v>270.5448280395447</v>
+        <v>270.5448280395448</v>
       </c>
       <c r="O45" t="n">
-        <v>238.4057462161409</v>
+        <v>238.405746216141</v>
       </c>
       <c r="P45" t="n">
         <v>183.4326479153363</v>
       </c>
       <c r="Q45" t="n">
-        <v>341.3760161886397</v>
+        <v>506.0804618258591</v>
       </c>
       <c r="R45" t="n">
-        <v>18.28336828375328</v>
+        <v>18.28336828375331</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,16 +38180,16 @@
         <v>277.3555737492421</v>
       </c>
       <c r="L46" t="n">
-        <v>417.6704839137738</v>
+        <v>100.5198665046596</v>
       </c>
       <c r="M46" t="n">
-        <v>455.7678973594753</v>
+        <v>455.7678973594754</v>
       </c>
       <c r="N46" t="n">
-        <v>186.1095904660699</v>
+        <v>185.002875128982</v>
       </c>
       <c r="O46" t="n">
-        <v>91.42685060480903</v>
+        <v>409.6841833510116</v>
       </c>
       <c r="P46" t="n">
         <v>333.9661976574595</v>
